--- a/qr/TA 25 EG1ASP.xlsx
+++ b/qr/TA 25 EG1ASP.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://equatekw-my.sharepoint.com/personal/ashiktth_equate_com/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HAI\Desktop\PROJECTS\WORK\eqscm\qr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="354" documentId="11_F25DC773A252ABDACC104888A9DC67E65ADE5902" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1509FE28-DE45-4253-BA5F-31FEEF81E68B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{701A58D4-5D05-48E7-9F94-BEC4CC13BBED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="19416" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AD$205</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AD$255</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2485" uniqueCount="718">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3255" uniqueCount="899">
   <si>
     <t>Job Status</t>
   </si>
@@ -2196,12 +2196,555 @@
     <t>NEED UNIT INSPECTION 
 BEFORE AND AFTER O/H</t>
   </si>
+  <si>
+    <t>DMO</t>
+  </si>
+  <si>
+    <t>DMO1</t>
+  </si>
+  <si>
+    <t>DEMO JOB DESCRIPTION</t>
+  </si>
+  <si>
+    <t>DEMO</t>
+  </si>
+  <si>
+    <t>DEMO Workshop</t>
+  </si>
+  <si>
+    <t>DEMO Additional Details</t>
+  </si>
+  <si>
+    <t>29/2/2025</t>
+  </si>
+  <si>
+    <t>20/2/2025</t>
+  </si>
+  <si>
+    <t>29/3/2025</t>
+  </si>
+  <si>
+    <t>31/3/2025</t>
+  </si>
+  <si>
+    <t>31/1/2025</t>
+  </si>
+  <si>
+    <t>25/1/2025</t>
+  </si>
+  <si>
+    <t>20/1/2025</t>
+  </si>
+  <si>
+    <t>22/1/2025</t>
+  </si>
+  <si>
+    <t>DMO2</t>
+  </si>
+  <si>
+    <t>Hydro</t>
+  </si>
+  <si>
+    <t>23/2/2025</t>
+  </si>
+  <si>
+    <t>28/2/2025</t>
+  </si>
+  <si>
+    <t>30/3/2025</t>
+  </si>
+  <si>
+    <t>23/3/2025</t>
+  </si>
+  <si>
+    <t>25/3/2025</t>
+  </si>
+  <si>
+    <t>28/3/2025</t>
+  </si>
+  <si>
+    <t>25/2/2025</t>
+  </si>
+  <si>
+    <t>26/1/2025</t>
+  </si>
+  <si>
+    <t>DMO3</t>
+  </si>
+  <si>
+    <t>31/2/2025</t>
+  </si>
+  <si>
+    <t>30/1/2025</t>
+  </si>
+  <si>
+    <t>21/1/2025</t>
+  </si>
+  <si>
+    <t>22/3/2025</t>
+  </si>
+  <si>
+    <t>23/1/2025</t>
+  </si>
+  <si>
+    <t>27/1/2025</t>
+  </si>
+  <si>
+    <t>DMO4</t>
+  </si>
+  <si>
+    <t>27/2/2025</t>
+  </si>
+  <si>
+    <t>29/1/2025</t>
+  </si>
+  <si>
+    <t>30/2/2025</t>
+  </si>
+  <si>
+    <t>DMO5</t>
+  </si>
+  <si>
+    <t>DMO6</t>
+  </si>
+  <si>
+    <t>24/3/2025</t>
+  </si>
+  <si>
+    <t>24/2/2025</t>
+  </si>
+  <si>
+    <t>26/2/2025</t>
+  </si>
+  <si>
+    <t>DMO7</t>
+  </si>
+  <si>
+    <t>DMO8</t>
+  </si>
+  <si>
+    <t>28/1/2025</t>
+  </si>
+  <si>
+    <t>21/2/2025</t>
+  </si>
+  <si>
+    <t>DMO9</t>
+  </si>
+  <si>
+    <t>24/1/2025</t>
+  </si>
+  <si>
+    <t>DMO10</t>
+  </si>
+  <si>
+    <t>27/3/2025</t>
+  </si>
+  <si>
+    <t>20/3/2025</t>
+  </si>
+  <si>
+    <t>DMO11</t>
+  </si>
+  <si>
+    <t>DMO12</t>
+  </si>
+  <si>
+    <t>DMO13</t>
+  </si>
+  <si>
+    <t>21/3/2025</t>
+  </si>
+  <si>
+    <t>DMO14</t>
+  </si>
+  <si>
+    <t>DMO15</t>
+  </si>
+  <si>
+    <t>DMO16</t>
+  </si>
+  <si>
+    <t>DMO17</t>
+  </si>
+  <si>
+    <t>DMO18</t>
+  </si>
+  <si>
+    <t>DMO19</t>
+  </si>
+  <si>
+    <t>DMO20</t>
+  </si>
+  <si>
+    <t>DMO21</t>
+  </si>
+  <si>
+    <t>DMO22</t>
+  </si>
+  <si>
+    <t>DMO23</t>
+  </si>
+  <si>
+    <t>DMO24</t>
+  </si>
+  <si>
+    <t>DMO25</t>
+  </si>
+  <si>
+    <t>DMO26</t>
+  </si>
+  <si>
+    <t>DMO27</t>
+  </si>
+  <si>
+    <t>DMO28</t>
+  </si>
+  <si>
+    <t>DMO29</t>
+  </si>
+  <si>
+    <t>DMO30</t>
+  </si>
+  <si>
+    <t>DMO31</t>
+  </si>
+  <si>
+    <t>DMO32</t>
+  </si>
+  <si>
+    <t>DMO33</t>
+  </si>
+  <si>
+    <t>DMO34</t>
+  </si>
+  <si>
+    <t>DMO35</t>
+  </si>
+  <si>
+    <t>DMO36</t>
+  </si>
+  <si>
+    <t>DMO37</t>
+  </si>
+  <si>
+    <t>DMO38</t>
+  </si>
+  <si>
+    <t>DMO39</t>
+  </si>
+  <si>
+    <t>DMO40</t>
+  </si>
+  <si>
+    <t>DMO41</t>
+  </si>
+  <si>
+    <t>DMO42</t>
+  </si>
+  <si>
+    <t>DMO43</t>
+  </si>
+  <si>
+    <t>DMO44</t>
+  </si>
+  <si>
+    <t>DMO45</t>
+  </si>
+  <si>
+    <t>DMO46</t>
+  </si>
+  <si>
+    <t>DMO47</t>
+  </si>
+  <si>
+    <t>DMO48</t>
+  </si>
+  <si>
+    <t>DMO49</t>
+  </si>
+  <si>
+    <t>DMO50</t>
+  </si>
+  <si>
+    <t>This is a Demo Item</t>
+  </si>
+  <si>
+    <t>MXK-DEMO-9963</t>
+  </si>
+  <si>
+    <t>MXK-DEMO-5614</t>
+  </si>
+  <si>
+    <t>4 X 4 IN</t>
+  </si>
+  <si>
+    <t>MXK-DEMO-6567</t>
+  </si>
+  <si>
+    <t>9 X 3 IN</t>
+  </si>
+  <si>
+    <t>MXK-DEMO-9230</t>
+  </si>
+  <si>
+    <t>8 X 3 IN</t>
+  </si>
+  <si>
+    <t>MXK-DEMO-5649</t>
+  </si>
+  <si>
+    <t>8 X 2 IN</t>
+  </si>
+  <si>
+    <t>MXK-DEMO-3737</t>
+  </si>
+  <si>
+    <t>9 X 10 IN</t>
+  </si>
+  <si>
+    <t>MXK-DEMO-4066</t>
+  </si>
+  <si>
+    <t>4 X 9 IN</t>
+  </si>
+  <si>
+    <t>MXK-DEMO-8906</t>
+  </si>
+  <si>
+    <t>10 X 2 IN</t>
+  </si>
+  <si>
+    <t>MXK-DEMO-8810</t>
+  </si>
+  <si>
+    <t>10 X 6 IN</t>
+  </si>
+  <si>
+    <t>MXK-DEMO-3821</t>
+  </si>
+  <si>
+    <t>5 X 10 IN</t>
+  </si>
+  <si>
+    <t>2 X 4 IN</t>
+  </si>
+  <si>
+    <t>MXK-DEMO-2402</t>
+  </si>
+  <si>
+    <t>8 X 9 IN</t>
+  </si>
+  <si>
+    <t>MXK-DEMO-5362</t>
+  </si>
+  <si>
+    <t>5 X 3 IN</t>
+  </si>
+  <si>
+    <t>MXK-DEMO-1292</t>
+  </si>
+  <si>
+    <t>4 X 5 IN</t>
+  </si>
+  <si>
+    <t>MXK-DEMO-5360</t>
+  </si>
+  <si>
+    <t>4 X 10 IN</t>
+  </si>
+  <si>
+    <t>MXK-DEMO-8502</t>
+  </si>
+  <si>
+    <t>10 X 7 IN</t>
+  </si>
+  <si>
+    <t>MXK-DEMO-3282</t>
+  </si>
+  <si>
+    <t>8 X 8 IN</t>
+  </si>
+  <si>
+    <t>MXK-DEMO-6346</t>
+  </si>
+  <si>
+    <t>1 X 1 IN</t>
+  </si>
+  <si>
+    <t>MXK-DEMO-1140</t>
+  </si>
+  <si>
+    <t>MXK-DEMO-6799</t>
+  </si>
+  <si>
+    <t>8 X 6 IN</t>
+  </si>
+  <si>
+    <t>MXK-DEMO-5091</t>
+  </si>
+  <si>
+    <t>3 X 8 IN</t>
+  </si>
+  <si>
+    <t>MXK-DEMO-1337</t>
+  </si>
+  <si>
+    <t>3 X 7 IN</t>
+  </si>
+  <si>
+    <t>MXK-DEMO-7870</t>
+  </si>
+  <si>
+    <t>2 X 1 IN</t>
+  </si>
+  <si>
+    <t>MXK-DEMO-9595</t>
+  </si>
+  <si>
+    <t>MXK-DEMO-2591</t>
+  </si>
+  <si>
+    <t>7 X 4 IN</t>
+  </si>
+  <si>
+    <t>MXK-DEMO-2098</t>
+  </si>
+  <si>
+    <t>9 X 2 IN</t>
+  </si>
+  <si>
+    <t>MXK-DEMO-5976</t>
+  </si>
+  <si>
+    <t>2 X 9 IN</t>
+  </si>
+  <si>
+    <t>MXK-DEMO-6778</t>
+  </si>
+  <si>
+    <t>2 X 2 IN</t>
+  </si>
+  <si>
+    <t>MXK-DEMO-2460</t>
+  </si>
+  <si>
+    <t>1 X 5 IN</t>
+  </si>
+  <si>
+    <t>MXK-DEMO-4112</t>
+  </si>
+  <si>
+    <t>8 X 7 IN</t>
+  </si>
+  <si>
+    <t>MXK-DEMO-6451</t>
+  </si>
+  <si>
+    <t>10 X 4 IN</t>
+  </si>
+  <si>
+    <t>MXK-DEMO-9837</t>
+  </si>
+  <si>
+    <t>1 X 3 IN</t>
+  </si>
+  <si>
+    <t>MXK-DEMO-6294</t>
+  </si>
+  <si>
+    <t>7 X 8 IN</t>
+  </si>
+  <si>
+    <t>MXK-DEMO-5453</t>
+  </si>
+  <si>
+    <t>3 X 10 IN</t>
+  </si>
+  <si>
+    <t>MXK-DEMO-5135</t>
+  </si>
+  <si>
+    <t>10 X 9 IN</t>
+  </si>
+  <si>
+    <t>MXK-DEMO-9718</t>
+  </si>
+  <si>
+    <t>3 X 5 IN</t>
+  </si>
+  <si>
+    <t>MXK-DEMO-4923</t>
+  </si>
+  <si>
+    <t>MXK-DEMO-6677</t>
+  </si>
+  <si>
+    <t>7 X 7 IN</t>
+  </si>
+  <si>
+    <t>MXK-DEMO-8042</t>
+  </si>
+  <si>
+    <t>MXK-DEMO-6490</t>
+  </si>
+  <si>
+    <t>MXK-DEMO-6922</t>
+  </si>
+  <si>
+    <t>MXK-DEMO-4367</t>
+  </si>
+  <si>
+    <t>MXK-DEMO-4098</t>
+  </si>
+  <si>
+    <t>1 X 9 IN</t>
+  </si>
+  <si>
+    <t>MXK-DEMO-2217</t>
+  </si>
+  <si>
+    <t>MXK-DEMO-2881</t>
+  </si>
+  <si>
+    <t>10 X 1 IN</t>
+  </si>
+  <si>
+    <t>MXK-DEMO-8008</t>
+  </si>
+  <si>
+    <t>MXK-DEMO-1066</t>
+  </si>
+  <si>
+    <t>9 X 1 IN</t>
+  </si>
+  <si>
+    <t>MXK-DEMO-2371</t>
+  </si>
+  <si>
+    <t>10 X 8 IN</t>
+  </si>
+  <si>
+    <t>MXK-DEMO-3344</t>
+  </si>
+  <si>
+    <t>2 X 8 IN</t>
+  </si>
+  <si>
+    <t>MXK-DEMO-6628</t>
+  </si>
+  <si>
+    <t>7 X 10 IN</t>
+  </si>
+  <si>
+    <t>MXK-DEMO-2296</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2250,8 +2793,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2274,6 +2831,11 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -2327,10 +2889,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2383,35 +2946,42 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="57">
@@ -2998,10 +3568,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3265,47 +3831,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD205"/>
+  <dimension ref="A1:AD255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F178" workbookViewId="0">
-      <selection activeCell="K190" sqref="K190"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A202" sqref="A202"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.6328125" style="23" customWidth="1"/>
-    <col min="2" max="2" width="8.7265625" style="26"/>
-    <col min="3" max="3" width="11.1796875" style="23" customWidth="1"/>
-    <col min="4" max="4" width="8.7265625" style="23"/>
-    <col min="5" max="5" width="11.08984375" style="23" customWidth="1"/>
-    <col min="6" max="6" width="21.54296875" style="23" customWidth="1"/>
-    <col min="7" max="7" width="56.54296875" style="23" customWidth="1"/>
-    <col min="8" max="8" width="12.90625" style="23" customWidth="1"/>
-    <col min="9" max="9" width="15.81640625" style="23" customWidth="1"/>
-    <col min="10" max="10" width="18.36328125" style="23" customWidth="1"/>
-    <col min="11" max="11" width="12.90625" style="23" customWidth="1"/>
-    <col min="12" max="12" width="21.1796875" style="23" customWidth="1"/>
-    <col min="13" max="13" width="24.26953125" style="23" customWidth="1"/>
-    <col min="14" max="14" width="19.54296875" style="23" customWidth="1"/>
-    <col min="15" max="15" width="29.90625" style="23" customWidth="1"/>
-    <col min="16" max="16" width="25.6328125" style="23" customWidth="1"/>
-    <col min="17" max="17" width="26.453125" style="23" customWidth="1"/>
-    <col min="18" max="18" width="25.08984375" style="23" customWidth="1"/>
-    <col min="19" max="19" width="38.26953125" style="23" customWidth="1"/>
-    <col min="20" max="20" width="24.6328125" style="23" customWidth="1"/>
-    <col min="21" max="21" width="24.7265625" style="23" customWidth="1"/>
-    <col min="22" max="22" width="19.6328125" style="23" customWidth="1"/>
-    <col min="23" max="23" width="28.6328125" style="23" customWidth="1"/>
-    <col min="24" max="24" width="17.6328125" style="23" customWidth="1"/>
-    <col min="25" max="26" width="13.7265625" style="23" customWidth="1"/>
-    <col min="27" max="27" width="27.81640625" style="23" customWidth="1"/>
-    <col min="28" max="28" width="21.36328125" style="23" customWidth="1"/>
-    <col min="29" max="29" width="21.90625" style="23" customWidth="1"/>
-    <col min="30" max="30" width="26.36328125" style="23" customWidth="1"/>
-    <col min="31" max="16384" width="8.7265625" style="23"/>
+    <col min="1" max="1" width="14.6640625" style="23" customWidth="1"/>
+    <col min="2" max="2" width="8.77734375" style="26"/>
+    <col min="3" max="3" width="11.21875" style="23" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" style="23"/>
+    <col min="5" max="5" width="11.109375" style="23" customWidth="1"/>
+    <col min="6" max="6" width="21.5546875" style="23" customWidth="1"/>
+    <col min="7" max="7" width="56.5546875" style="23" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" style="23" customWidth="1"/>
+    <col min="9" max="9" width="15.77734375" style="23" customWidth="1"/>
+    <col min="10" max="10" width="18.33203125" style="23" customWidth="1"/>
+    <col min="11" max="11" width="12.88671875" style="23" customWidth="1"/>
+    <col min="12" max="12" width="21.21875" style="23" customWidth="1"/>
+    <col min="13" max="13" width="24.21875" style="23" customWidth="1"/>
+    <col min="14" max="14" width="19.5546875" style="23" customWidth="1"/>
+    <col min="15" max="15" width="29.88671875" style="23" customWidth="1"/>
+    <col min="16" max="16" width="25.6640625" style="23" customWidth="1"/>
+    <col min="17" max="17" width="26.44140625" style="23" customWidth="1"/>
+    <col min="18" max="18" width="25.109375" style="23" customWidth="1"/>
+    <col min="19" max="19" width="38.21875" style="23" customWidth="1"/>
+    <col min="20" max="20" width="24.6640625" style="23" customWidth="1"/>
+    <col min="21" max="21" width="24.77734375" style="23" customWidth="1"/>
+    <col min="22" max="22" width="19.6640625" style="23" customWidth="1"/>
+    <col min="23" max="23" width="28.6640625" style="23" customWidth="1"/>
+    <col min="24" max="24" width="17.6640625" style="23" customWidth="1"/>
+    <col min="25" max="26" width="13.77734375" style="23" customWidth="1"/>
+    <col min="27" max="27" width="27.77734375" style="23" customWidth="1"/>
+    <col min="28" max="28" width="21.33203125" style="23" customWidth="1"/>
+    <col min="29" max="29" width="21.88671875" style="23" customWidth="1"/>
+    <col min="30" max="30" width="26.33203125" style="23" customWidth="1"/>
+    <col min="31" max="16384" width="8.77734375" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3397,7 +3963,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>634</v>
       </c>
@@ -3459,7 +4025,7 @@
       <c r="AC2" s="19"/>
       <c r="AD2" s="19"/>
     </row>
-    <row r="3" spans="1:30" ht="31" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:30" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>634</v>
       </c>
@@ -3525,7 +4091,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="4" spans="1:30" ht="31" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:30" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>634</v>
       </c>
@@ -3591,7 +4157,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="31" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:30" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>634</v>
       </c>
@@ -3657,7 +4223,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>634</v>
       </c>
@@ -3719,7 +4285,7 @@
       <c r="AC6" s="19"/>
       <c r="AD6" s="19"/>
     </row>
-    <row r="7" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>634</v>
       </c>
@@ -3781,7 +4347,7 @@
       <c r="AC7" s="19"/>
       <c r="AD7" s="19"/>
     </row>
-    <row r="8" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>634</v>
       </c>
@@ -3843,7 +4409,7 @@
       <c r="AC8" s="19"/>
       <c r="AD8" s="19"/>
     </row>
-    <row r="9" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>634</v>
       </c>
@@ -3905,7 +4471,7 @@
       <c r="AC9" s="19"/>
       <c r="AD9" s="19"/>
     </row>
-    <row r="10" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>634</v>
       </c>
@@ -3967,7 +4533,7 @@
       <c r="AC10" s="19"/>
       <c r="AD10" s="19"/>
     </row>
-    <row r="11" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>634</v>
       </c>
@@ -4029,7 +4595,7 @@
       <c r="AC11" s="19"/>
       <c r="AD11" s="19"/>
     </row>
-    <row r="12" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>634</v>
       </c>
@@ -4091,7 +4657,7 @@
       <c r="AC12" s="19"/>
       <c r="AD12" s="19"/>
     </row>
-    <row r="13" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>634</v>
       </c>
@@ -4153,7 +4719,7 @@
       <c r="AC13" s="19"/>
       <c r="AD13" s="19"/>
     </row>
-    <row r="14" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>634</v>
       </c>
@@ -4215,7 +4781,7 @@
       <c r="AC14" s="19"/>
       <c r="AD14" s="19"/>
     </row>
-    <row r="15" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>634</v>
       </c>
@@ -4277,7 +4843,7 @@
       <c r="AC15" s="19"/>
       <c r="AD15" s="19"/>
     </row>
-    <row r="16" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>634</v>
       </c>
@@ -4339,7 +4905,7 @@
       <c r="AC16" s="19"/>
       <c r="AD16" s="19"/>
     </row>
-    <row r="17" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>634</v>
       </c>
@@ -4401,7 +4967,7 @@
       <c r="AC17" s="19"/>
       <c r="AD17" s="19"/>
     </row>
-    <row r="18" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>634</v>
       </c>
@@ -4463,7 +5029,7 @@
       <c r="AC18" s="19"/>
       <c r="AD18" s="19"/>
     </row>
-    <row r="19" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>634</v>
       </c>
@@ -4525,7 +5091,7 @@
       <c r="AC19" s="19"/>
       <c r="AD19" s="19"/>
     </row>
-    <row r="20" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>634</v>
       </c>
@@ -4587,7 +5153,7 @@
       <c r="AC20" s="19"/>
       <c r="AD20" s="19"/>
     </row>
-    <row r="21" spans="1:30" ht="31" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:30" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>634</v>
       </c>
@@ -4653,7 +5219,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="22" spans="1:30" ht="31" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:30" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>634</v>
       </c>
@@ -4719,7 +5285,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="23" spans="1:30" ht="31" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:30" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>634</v>
       </c>
@@ -4785,7 +5351,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="24" spans="1:30" ht="31" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:30" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>634</v>
       </c>
@@ -4851,7 +5417,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="25" spans="1:30" ht="31" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:30" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>634</v>
       </c>
@@ -4917,7 +5483,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="26" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>634</v>
       </c>
@@ -4979,7 +5545,7 @@
       <c r="AC26" s="19"/>
       <c r="AD26" s="19"/>
     </row>
-    <row r="27" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>634</v>
       </c>
@@ -5041,7 +5607,7 @@
       <c r="AC27" s="19"/>
       <c r="AD27" s="19"/>
     </row>
-    <row r="28" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>634</v>
       </c>
@@ -5103,7 +5669,7 @@
       <c r="AC28" s="19"/>
       <c r="AD28" s="19"/>
     </row>
-    <row r="29" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>634</v>
       </c>
@@ -5165,7 +5731,7 @@
       <c r="AC29" s="19"/>
       <c r="AD29" s="19"/>
     </row>
-    <row r="30" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>634</v>
       </c>
@@ -5227,7 +5793,7 @@
       <c r="AC30" s="19"/>
       <c r="AD30" s="19"/>
     </row>
-    <row r="31" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>634</v>
       </c>
@@ -5289,7 +5855,7 @@
       <c r="AC31" s="19"/>
       <c r="AD31" s="19"/>
     </row>
-    <row r="32" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>634</v>
       </c>
@@ -5351,7 +5917,7 @@
       <c r="AC32" s="19"/>
       <c r="AD32" s="19"/>
     </row>
-    <row r="33" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>634</v>
       </c>
@@ -5413,7 +5979,7 @@
       <c r="AC33" s="19"/>
       <c r="AD33" s="19"/>
     </row>
-    <row r="34" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>634</v>
       </c>
@@ -5475,7 +6041,7 @@
       <c r="AC34" s="19"/>
       <c r="AD34" s="19"/>
     </row>
-    <row r="35" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>634</v>
       </c>
@@ -5537,7 +6103,7 @@
       <c r="AC35" s="19"/>
       <c r="AD35" s="19"/>
     </row>
-    <row r="36" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>634</v>
       </c>
@@ -5599,7 +6165,7 @@
       <c r="AC36" s="19"/>
       <c r="AD36" s="19"/>
     </row>
-    <row r="37" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>634</v>
       </c>
@@ -5661,7 +6227,7 @@
       <c r="AC37" s="19"/>
       <c r="AD37" s="19"/>
     </row>
-    <row r="38" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>634</v>
       </c>
@@ -5723,7 +6289,7 @@
       <c r="AC38" s="19"/>
       <c r="AD38" s="19"/>
     </row>
-    <row r="39" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>634</v>
       </c>
@@ -5785,7 +6351,7 @@
       <c r="AC39" s="19"/>
       <c r="AD39" s="19"/>
     </row>
-    <row r="40" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>634</v>
       </c>
@@ -5847,7 +6413,7 @@
       <c r="AC40" s="19"/>
       <c r="AD40" s="19"/>
     </row>
-    <row r="41" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>634</v>
       </c>
@@ -5909,7 +6475,7 @@
       <c r="AC41" s="19"/>
       <c r="AD41" s="19"/>
     </row>
-    <row r="42" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>634</v>
       </c>
@@ -5971,7 +6537,7 @@
       <c r="AC42" s="19"/>
       <c r="AD42" s="19"/>
     </row>
-    <row r="43" spans="1:30" ht="31" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:30" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>634</v>
       </c>
@@ -6037,7 +6603,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="44" spans="1:30" ht="50" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:30" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>634</v>
       </c>
@@ -6099,7 +6665,7 @@
       <c r="AC44" s="19"/>
       <c r="AD44" s="19"/>
     </row>
-    <row r="45" spans="1:30" ht="38" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:30" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>634</v>
       </c>
@@ -6161,7 +6727,7 @@
       <c r="AC45" s="19"/>
       <c r="AD45" s="19"/>
     </row>
-    <row r="46" spans="1:30" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:30" ht="33.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>634</v>
       </c>
@@ -6223,7 +6789,7 @@
       <c r="AC46" s="19"/>
       <c r="AD46" s="19"/>
     </row>
-    <row r="47" spans="1:30" ht="31" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:30" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>634</v>
       </c>
@@ -6289,7 +6855,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="48" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>634</v>
       </c>
@@ -6351,7 +6917,7 @@
       <c r="AC48" s="19"/>
       <c r="AD48" s="19"/>
     </row>
-    <row r="49" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>634</v>
       </c>
@@ -6411,7 +6977,7 @@
       <c r="AC49" s="19"/>
       <c r="AD49" s="19"/>
     </row>
-    <row r="50" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>634</v>
       </c>
@@ -6473,7 +7039,7 @@
       <c r="AC50" s="19"/>
       <c r="AD50" s="19"/>
     </row>
-    <row r="51" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>634</v>
       </c>
@@ -6533,7 +7099,7 @@
       <c r="AC51" s="19"/>
       <c r="AD51" s="19"/>
     </row>
-    <row r="52" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
         <v>634</v>
       </c>
@@ -6593,7 +7159,7 @@
       <c r="AC52" s="19"/>
       <c r="AD52" s="19"/>
     </row>
-    <row r="53" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>634</v>
       </c>
@@ -6655,7 +7221,7 @@
       <c r="AC53" s="19"/>
       <c r="AD53" s="19"/>
     </row>
-    <row r="54" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
         <v>634</v>
       </c>
@@ -6715,7 +7281,7 @@
       <c r="AC54" s="19"/>
       <c r="AD54" s="19"/>
     </row>
-    <row r="55" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>634</v>
       </c>
@@ -6775,7 +7341,7 @@
       <c r="AC55" s="19"/>
       <c r="AD55" s="19"/>
     </row>
-    <row r="56" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
         <v>634</v>
       </c>
@@ -6835,7 +7401,7 @@
       <c r="AC56" s="19"/>
       <c r="AD56" s="19"/>
     </row>
-    <row r="57" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
         <v>634</v>
       </c>
@@ -6895,7 +7461,7 @@
       <c r="AC57" s="19"/>
       <c r="AD57" s="19"/>
     </row>
-    <row r="58" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>634</v>
       </c>
@@ -6955,7 +7521,7 @@
       <c r="AC58" s="19"/>
       <c r="AD58" s="19"/>
     </row>
-    <row r="59" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
         <v>634</v>
       </c>
@@ -7015,7 +7581,7 @@
       <c r="AC59" s="19"/>
       <c r="AD59" s="19"/>
     </row>
-    <row r="60" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
         <v>634</v>
       </c>
@@ -7075,7 +7641,7 @@
       <c r="AC60" s="19"/>
       <c r="AD60" s="19"/>
     </row>
-    <row r="61" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
         <v>634</v>
       </c>
@@ -7135,7 +7701,7 @@
       <c r="AC61" s="19"/>
       <c r="AD61" s="19"/>
     </row>
-    <row r="62" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
         <v>634</v>
       </c>
@@ -7195,7 +7761,7 @@
       <c r="AC62" s="19"/>
       <c r="AD62" s="19"/>
     </row>
-    <row r="63" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
         <v>634</v>
       </c>
@@ -7255,7 +7821,7 @@
       <c r="AC63" s="19"/>
       <c r="AD63" s="19"/>
     </row>
-    <row r="64" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
         <v>634</v>
       </c>
@@ -7315,7 +7881,7 @@
       <c r="AC64" s="19"/>
       <c r="AD64" s="19"/>
     </row>
-    <row r="65" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
         <v>634</v>
       </c>
@@ -7375,7 +7941,7 @@
       <c r="AC65" s="19"/>
       <c r="AD65" s="19"/>
     </row>
-    <row r="66" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
         <v>634</v>
       </c>
@@ -7435,7 +8001,7 @@
       <c r="AC66" s="19"/>
       <c r="AD66" s="19"/>
     </row>
-    <row r="67" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
         <v>634</v>
       </c>
@@ -7495,7 +8061,7 @@
       <c r="AC67" s="19"/>
       <c r="AD67" s="19"/>
     </row>
-    <row r="68" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
         <v>634</v>
       </c>
@@ -7555,7 +8121,7 @@
       <c r="AC68" s="19"/>
       <c r="AD68" s="19"/>
     </row>
-    <row r="69" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
         <v>634</v>
       </c>
@@ -7615,7 +8181,7 @@
       <c r="AC69" s="19"/>
       <c r="AD69" s="19"/>
     </row>
-    <row r="70" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
         <v>634</v>
       </c>
@@ -7675,7 +8241,7 @@
       <c r="AC70" s="19"/>
       <c r="AD70" s="19"/>
     </row>
-    <row r="71" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
         <v>634</v>
       </c>
@@ -7735,7 +8301,7 @@
       <c r="AC71" s="19"/>
       <c r="AD71" s="19"/>
     </row>
-    <row r="72" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
         <v>634</v>
       </c>
@@ -7795,7 +8361,7 @@
       <c r="AC72" s="19"/>
       <c r="AD72" s="19"/>
     </row>
-    <row r="73" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
         <v>634</v>
       </c>
@@ -7855,7 +8421,7 @@
       <c r="AC73" s="19"/>
       <c r="AD73" s="19"/>
     </row>
-    <row r="74" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
         <v>634</v>
       </c>
@@ -7917,7 +8483,7 @@
       <c r="AC74" s="19"/>
       <c r="AD74" s="19"/>
     </row>
-    <row r="75" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
         <v>634</v>
       </c>
@@ -7977,7 +8543,7 @@
       <c r="AC75" s="19"/>
       <c r="AD75" s="19"/>
     </row>
-    <row r="76" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
         <v>634</v>
       </c>
@@ -8037,7 +8603,7 @@
       <c r="AC76" s="19"/>
       <c r="AD76" s="19"/>
     </row>
-    <row r="77" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
         <v>634</v>
       </c>
@@ -8097,7 +8663,7 @@
       <c r="AC77" s="19"/>
       <c r="AD77" s="19"/>
     </row>
-    <row r="78" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
         <v>634</v>
       </c>
@@ -8157,7 +8723,7 @@
       <c r="AC78" s="19"/>
       <c r="AD78" s="19"/>
     </row>
-    <row r="79" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
         <v>634</v>
       </c>
@@ -8217,7 +8783,7 @@
       <c r="AC79" s="19"/>
       <c r="AD79" s="19"/>
     </row>
-    <row r="80" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
         <v>634</v>
       </c>
@@ -8277,7 +8843,7 @@
       <c r="AC80" s="19"/>
       <c r="AD80" s="19"/>
     </row>
-    <row r="81" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
         <v>634</v>
       </c>
@@ -8337,7 +8903,7 @@
       <c r="AC81" s="19"/>
       <c r="AD81" s="19"/>
     </row>
-    <row r="82" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
         <v>634</v>
       </c>
@@ -8397,7 +8963,7 @@
       <c r="AC82" s="19"/>
       <c r="AD82" s="19"/>
     </row>
-    <row r="83" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
         <v>634</v>
       </c>
@@ -8457,7 +9023,7 @@
       <c r="AC83" s="19"/>
       <c r="AD83" s="19"/>
     </row>
-    <row r="84" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
         <v>634</v>
       </c>
@@ -8517,7 +9083,7 @@
       <c r="AC84" s="19"/>
       <c r="AD84" s="19"/>
     </row>
-    <row r="85" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
         <v>634</v>
       </c>
@@ -8577,7 +9143,7 @@
       <c r="AC85" s="19"/>
       <c r="AD85" s="19"/>
     </row>
-    <row r="86" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
         <v>634</v>
       </c>
@@ -8637,7 +9203,7 @@
       <c r="AC86" s="19"/>
       <c r="AD86" s="19"/>
     </row>
-    <row r="87" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
         <v>634</v>
       </c>
@@ -8697,7 +9263,7 @@
       <c r="AC87" s="19"/>
       <c r="AD87" s="19"/>
     </row>
-    <row r="88" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
         <v>634</v>
       </c>
@@ -8757,7 +9323,7 @@
       <c r="AC88" s="19"/>
       <c r="AD88" s="19"/>
     </row>
-    <row r="89" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
         <v>634</v>
       </c>
@@ -8817,7 +9383,7 @@
       <c r="AC89" s="19"/>
       <c r="AD89" s="19"/>
     </row>
-    <row r="90" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
         <v>634</v>
       </c>
@@ -8877,7 +9443,7 @@
       <c r="AC90" s="19"/>
       <c r="AD90" s="19"/>
     </row>
-    <row r="91" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
         <v>634</v>
       </c>
@@ -8937,7 +9503,7 @@
       <c r="AC91" s="19"/>
       <c r="AD91" s="19"/>
     </row>
-    <row r="92" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="4" t="s">
         <v>634</v>
       </c>
@@ -8997,7 +9563,7 @@
       <c r="AC92" s="19"/>
       <c r="AD92" s="19"/>
     </row>
-    <row r="93" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
         <v>634</v>
       </c>
@@ -9057,7 +9623,7 @@
       <c r="AC93" s="19"/>
       <c r="AD93" s="19"/>
     </row>
-    <row r="94" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
         <v>634</v>
       </c>
@@ -9117,7 +9683,7 @@
       <c r="AC94" s="19"/>
       <c r="AD94" s="19"/>
     </row>
-    <row r="95" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
         <v>634</v>
       </c>
@@ -9177,7 +9743,7 @@
       <c r="AC95" s="19"/>
       <c r="AD95" s="19"/>
     </row>
-    <row r="96" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="4" t="s">
         <v>634</v>
       </c>
@@ -9237,7 +9803,7 @@
       <c r="AC96" s="19"/>
       <c r="AD96" s="19"/>
     </row>
-    <row r="97" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
         <v>634</v>
       </c>
@@ -9297,7 +9863,7 @@
       <c r="AC97" s="19"/>
       <c r="AD97" s="19"/>
     </row>
-    <row r="98" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="s">
         <v>634</v>
       </c>
@@ -9357,7 +9923,7 @@
       <c r="AC98" s="19"/>
       <c r="AD98" s="19"/>
     </row>
-    <row r="99" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="4" t="s">
         <v>634</v>
       </c>
@@ -9417,7 +9983,7 @@
       <c r="AC99" s="19"/>
       <c r="AD99" s="19"/>
     </row>
-    <row r="100" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="4" t="s">
         <v>634</v>
       </c>
@@ -9477,7 +10043,7 @@
       <c r="AC100" s="19"/>
       <c r="AD100" s="19"/>
     </row>
-    <row r="101" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="4" t="s">
         <v>634</v>
       </c>
@@ -9537,7 +10103,7 @@
       <c r="AC101" s="19"/>
       <c r="AD101" s="19"/>
     </row>
-    <row r="102" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="4" t="s">
         <v>634</v>
       </c>
@@ -9597,7 +10163,7 @@
       <c r="AC102" s="19"/>
       <c r="AD102" s="19"/>
     </row>
-    <row r="103" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="4" t="s">
         <v>634</v>
       </c>
@@ -9657,7 +10223,7 @@
       <c r="AC103" s="19"/>
       <c r="AD103" s="19"/>
     </row>
-    <row r="104" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="4" t="s">
         <v>634</v>
       </c>
@@ -9717,7 +10283,7 @@
       <c r="AC104" s="19"/>
       <c r="AD104" s="19"/>
     </row>
-    <row r="105" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="4" t="s">
         <v>634</v>
       </c>
@@ -9777,7 +10343,7 @@
       <c r="AC105" s="19"/>
       <c r="AD105" s="19"/>
     </row>
-    <row r="106" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="4" t="s">
         <v>634</v>
       </c>
@@ -9837,7 +10403,7 @@
       <c r="AC106" s="19"/>
       <c r="AD106" s="19"/>
     </row>
-    <row r="107" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="4" t="s">
         <v>634</v>
       </c>
@@ -9897,7 +10463,7 @@
       <c r="AC107" s="19"/>
       <c r="AD107" s="19"/>
     </row>
-    <row r="108" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="4" t="s">
         <v>634</v>
       </c>
@@ -9957,7 +10523,7 @@
       <c r="AC108" s="19"/>
       <c r="AD108" s="19"/>
     </row>
-    <row r="109" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="4" t="s">
         <v>634</v>
       </c>
@@ -10017,7 +10583,7 @@
       <c r="AC109" s="19"/>
       <c r="AD109" s="19"/>
     </row>
-    <row r="110" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="4" t="s">
         <v>634</v>
       </c>
@@ -10077,7 +10643,7 @@
       <c r="AC110" s="19"/>
       <c r="AD110" s="19"/>
     </row>
-    <row r="111" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="4" t="s">
         <v>634</v>
       </c>
@@ -10137,7 +10703,7 @@
       <c r="AC111" s="19"/>
       <c r="AD111" s="19"/>
     </row>
-    <row r="112" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="4" t="s">
         <v>634</v>
       </c>
@@ -10197,7 +10763,7 @@
       <c r="AC112" s="19"/>
       <c r="AD112" s="19"/>
     </row>
-    <row r="113" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="4" t="s">
         <v>634</v>
       </c>
@@ -10257,7 +10823,7 @@
       <c r="AC113" s="19"/>
       <c r="AD113" s="19"/>
     </row>
-    <row r="114" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="4" t="s">
         <v>634</v>
       </c>
@@ -10317,7 +10883,7 @@
       <c r="AC114" s="19"/>
       <c r="AD114" s="19"/>
     </row>
-    <row r="115" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="4" t="s">
         <v>634</v>
       </c>
@@ -10377,7 +10943,7 @@
       <c r="AC115" s="19"/>
       <c r="AD115" s="19"/>
     </row>
-    <row r="116" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="4" t="s">
         <v>634</v>
       </c>
@@ -10437,7 +11003,7 @@
       <c r="AC116" s="19"/>
       <c r="AD116" s="19"/>
     </row>
-    <row r="117" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="4" t="s">
         <v>634</v>
       </c>
@@ -10497,7 +11063,7 @@
       <c r="AC117" s="19"/>
       <c r="AD117" s="19"/>
     </row>
-    <row r="118" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="4" t="s">
         <v>634</v>
       </c>
@@ -10559,7 +11125,7 @@
       <c r="AC118" s="19"/>
       <c r="AD118" s="19"/>
     </row>
-    <row r="119" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="4" t="s">
         <v>634</v>
       </c>
@@ -10619,7 +11185,7 @@
       <c r="AC119" s="19"/>
       <c r="AD119" s="19"/>
     </row>
-    <row r="120" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="4" t="s">
         <v>634</v>
       </c>
@@ -10679,7 +11245,7 @@
       <c r="AC120" s="19"/>
       <c r="AD120" s="19"/>
     </row>
-    <row r="121" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="4" t="s">
         <v>634</v>
       </c>
@@ -10741,7 +11307,7 @@
       <c r="AC121" s="19"/>
       <c r="AD121" s="19"/>
     </row>
-    <row r="122" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="4" t="s">
         <v>634</v>
       </c>
@@ -10801,7 +11367,7 @@
       <c r="AC122" s="19"/>
       <c r="AD122" s="19"/>
     </row>
-    <row r="123" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="4" t="s">
         <v>634</v>
       </c>
@@ -10861,7 +11427,7 @@
       <c r="AC123" s="19"/>
       <c r="AD123" s="19"/>
     </row>
-    <row r="124" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="4" t="s">
         <v>634</v>
       </c>
@@ -10921,7 +11487,7 @@
       <c r="AC124" s="19"/>
       <c r="AD124" s="19"/>
     </row>
-    <row r="125" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="4" t="s">
         <v>634</v>
       </c>
@@ -10981,7 +11547,7 @@
       <c r="AC125" s="19"/>
       <c r="AD125" s="19"/>
     </row>
-    <row r="126" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="4" t="s">
         <v>634</v>
       </c>
@@ -11041,7 +11607,7 @@
       <c r="AC126" s="19"/>
       <c r="AD126" s="19"/>
     </row>
-    <row r="127" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="4" t="s">
         <v>634</v>
       </c>
@@ -11101,7 +11667,7 @@
       <c r="AC127" s="19"/>
       <c r="AD127" s="19"/>
     </row>
-    <row r="128" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="4" t="s">
         <v>634</v>
       </c>
@@ -11161,7 +11727,7 @@
       <c r="AC128" s="19"/>
       <c r="AD128" s="19"/>
     </row>
-    <row r="129" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="4" t="s">
         <v>634</v>
       </c>
@@ -11221,7 +11787,7 @@
       <c r="AC129" s="19"/>
       <c r="AD129" s="19"/>
     </row>
-    <row r="130" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="4" t="s">
         <v>634</v>
       </c>
@@ -11281,7 +11847,7 @@
       <c r="AC130" s="19"/>
       <c r="AD130" s="19"/>
     </row>
-    <row r="131" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="4" t="s">
         <v>634</v>
       </c>
@@ -11341,7 +11907,7 @@
       <c r="AC131" s="19"/>
       <c r="AD131" s="19"/>
     </row>
-    <row r="132" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="4" t="s">
         <v>634</v>
       </c>
@@ -11401,7 +11967,7 @@
       <c r="AC132" s="19"/>
       <c r="AD132" s="19"/>
     </row>
-    <row r="133" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="4" t="s">
         <v>634</v>
       </c>
@@ -11461,7 +12027,7 @@
       <c r="AC133" s="19"/>
       <c r="AD133" s="19"/>
     </row>
-    <row r="134" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="4" t="s">
         <v>634</v>
       </c>
@@ -11521,7 +12087,7 @@
       <c r="AC134" s="19"/>
       <c r="AD134" s="19"/>
     </row>
-    <row r="135" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="4" t="s">
         <v>634</v>
       </c>
@@ -11581,7 +12147,7 @@
       <c r="AC135" s="19"/>
       <c r="AD135" s="19"/>
     </row>
-    <row r="136" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="4" t="s">
         <v>634</v>
       </c>
@@ -11641,7 +12207,7 @@
       <c r="AC136" s="19"/>
       <c r="AD136" s="19"/>
     </row>
-    <row r="137" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="4" t="s">
         <v>634</v>
       </c>
@@ -11701,7 +12267,7 @@
       <c r="AC137" s="19"/>
       <c r="AD137" s="19"/>
     </row>
-    <row r="138" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="4" t="s">
         <v>634</v>
       </c>
@@ -11761,7 +12327,7 @@
       <c r="AC138" s="19"/>
       <c r="AD138" s="19"/>
     </row>
-    <row r="139" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="4" t="s">
         <v>634</v>
       </c>
@@ -11821,7 +12387,7 @@
       <c r="AC139" s="19"/>
       <c r="AD139" s="19"/>
     </row>
-    <row r="140" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="4" t="s">
         <v>634</v>
       </c>
@@ -11881,7 +12447,7 @@
       <c r="AC140" s="19"/>
       <c r="AD140" s="19"/>
     </row>
-    <row r="141" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="4" t="s">
         <v>634</v>
       </c>
@@ -11941,7 +12507,7 @@
       <c r="AC141" s="19"/>
       <c r="AD141" s="19"/>
     </row>
-    <row r="142" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="4" t="s">
         <v>634</v>
       </c>
@@ -12001,7 +12567,7 @@
       <c r="AC142" s="19"/>
       <c r="AD142" s="19"/>
     </row>
-    <row r="143" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="4" t="s">
         <v>634</v>
       </c>
@@ -12061,7 +12627,7 @@
       <c r="AC143" s="19"/>
       <c r="AD143" s="19"/>
     </row>
-    <row r="144" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="4" t="s">
         <v>634</v>
       </c>
@@ -12121,7 +12687,7 @@
       <c r="AC144" s="19"/>
       <c r="AD144" s="19"/>
     </row>
-    <row r="145" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="4" t="s">
         <v>634</v>
       </c>
@@ -12181,7 +12747,7 @@
       <c r="AC145" s="19"/>
       <c r="AD145" s="19"/>
     </row>
-    <row r="146" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="4" t="s">
         <v>634</v>
       </c>
@@ -12241,7 +12807,7 @@
       <c r="AC146" s="19"/>
       <c r="AD146" s="19"/>
     </row>
-    <row r="147" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="4" t="s">
         <v>634</v>
       </c>
@@ -12301,7 +12867,7 @@
       <c r="AC147" s="19"/>
       <c r="AD147" s="19"/>
     </row>
-    <row r="148" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="4" t="s">
         <v>634</v>
       </c>
@@ -12363,7 +12929,7 @@
       <c r="AC148" s="19"/>
       <c r="AD148" s="19"/>
     </row>
-    <row r="149" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="4" t="s">
         <v>634</v>
       </c>
@@ -12425,7 +12991,7 @@
       <c r="AC149" s="19"/>
       <c r="AD149" s="19"/>
     </row>
-    <row r="150" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="4" t="s">
         <v>634</v>
       </c>
@@ -12485,7 +13051,7 @@
       <c r="AC150" s="19"/>
       <c r="AD150" s="19"/>
     </row>
-    <row r="151" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="4" t="s">
         <v>634</v>
       </c>
@@ -12545,7 +13111,7 @@
       <c r="AC151" s="19"/>
       <c r="AD151" s="19"/>
     </row>
-    <row r="152" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="4" t="s">
         <v>634</v>
       </c>
@@ -12605,7 +13171,7 @@
       <c r="AC152" s="19"/>
       <c r="AD152" s="19"/>
     </row>
-    <row r="153" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="4" t="s">
         <v>634</v>
       </c>
@@ -12665,7 +13231,7 @@
       <c r="AC153" s="19"/>
       <c r="AD153" s="19"/>
     </row>
-    <row r="154" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="4" t="s">
         <v>634</v>
       </c>
@@ -12725,7 +13291,7 @@
       <c r="AC154" s="19"/>
       <c r="AD154" s="19"/>
     </row>
-    <row r="155" spans="1:30" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:30" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="4" t="s">
         <v>634</v>
       </c>
@@ -12783,7 +13349,7 @@
       <c r="AC155" s="19"/>
       <c r="AD155" s="19"/>
     </row>
-    <row r="156" spans="1:30" ht="31" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:30" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="4" t="s">
         <v>634</v>
       </c>
@@ -12845,7 +13411,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="157" spans="1:30" ht="31" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:30" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="4" t="s">
         <v>634</v>
       </c>
@@ -12907,7 +13473,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="158" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="4" t="s">
         <v>634</v>
       </c>
@@ -12963,7 +13529,7 @@
       <c r="AC158" s="19"/>
       <c r="AD158" s="19"/>
     </row>
-    <row r="159" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="4" t="s">
         <v>634</v>
       </c>
@@ -13021,7 +13587,7 @@
       <c r="AC159" s="19"/>
       <c r="AD159" s="19"/>
     </row>
-    <row r="160" spans="1:30" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:30" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="4" t="s">
         <v>634</v>
       </c>
@@ -13077,7 +13643,7 @@
       <c r="AC160" s="19"/>
       <c r="AD160" s="19"/>
     </row>
-    <row r="161" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="4" t="s">
         <v>634</v>
       </c>
@@ -13135,7 +13701,7 @@
       <c r="AC161" s="19"/>
       <c r="AD161" s="19"/>
     </row>
-    <row r="162" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="4" t="s">
         <v>634</v>
       </c>
@@ -13193,7 +13759,7 @@
       <c r="AC162" s="19"/>
       <c r="AD162" s="19"/>
     </row>
-    <row r="163" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="4" t="s">
         <v>634</v>
       </c>
@@ -13251,7 +13817,7 @@
       <c r="AC163" s="19"/>
       <c r="AD163" s="19"/>
     </row>
-    <row r="164" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="4" t="s">
         <v>634</v>
       </c>
@@ -13309,7 +13875,7 @@
       <c r="AC164" s="19"/>
       <c r="AD164" s="19"/>
     </row>
-    <row r="165" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="4" t="s">
         <v>634</v>
       </c>
@@ -13367,7 +13933,7 @@
       <c r="AC165" s="19"/>
       <c r="AD165" s="19"/>
     </row>
-    <row r="166" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="4" t="s">
         <v>634</v>
       </c>
@@ -13425,7 +13991,7 @@
       <c r="AC166" s="19"/>
       <c r="AD166" s="19"/>
     </row>
-    <row r="167" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="4" t="s">
         <v>634</v>
       </c>
@@ -13483,7 +14049,7 @@
       <c r="AC167" s="19"/>
       <c r="AD167" s="19"/>
     </row>
-    <row r="168" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="4" t="s">
         <v>634</v>
       </c>
@@ -13541,7 +14107,7 @@
       <c r="AC168" s="19"/>
       <c r="AD168" s="19"/>
     </row>
-    <row r="169" spans="1:30" ht="31" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:30" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="4" t="s">
         <v>634</v>
       </c>
@@ -13605,7 +14171,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="170" spans="1:30" ht="31" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:30" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="4" t="s">
         <v>634</v>
       </c>
@@ -13669,7 +14235,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="171" spans="1:30" ht="31" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:30" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="4" t="s">
         <v>634</v>
       </c>
@@ -13733,7 +14299,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="172" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="4" t="s">
         <v>634</v>
       </c>
@@ -13791,7 +14357,7 @@
       <c r="AC172" s="19"/>
       <c r="AD172" s="19"/>
     </row>
-    <row r="173" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="4" t="s">
         <v>634</v>
       </c>
@@ -13849,7 +14415,7 @@
       <c r="AC173" s="19"/>
       <c r="AD173" s="19"/>
     </row>
-    <row r="174" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="4" t="s">
         <v>634</v>
       </c>
@@ -13907,7 +14473,7 @@
       <c r="AC174" s="19"/>
       <c r="AD174" s="19"/>
     </row>
-    <row r="175" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="4" t="s">
         <v>634</v>
       </c>
@@ -13965,7 +14531,7 @@
       <c r="AC175" s="19"/>
       <c r="AD175" s="19"/>
     </row>
-    <row r="176" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="4" t="s">
         <v>634</v>
       </c>
@@ -14023,7 +14589,7 @@
       <c r="AC176" s="19"/>
       <c r="AD176" s="19"/>
     </row>
-    <row r="177" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="4" t="s">
         <v>634</v>
       </c>
@@ -14081,7 +14647,7 @@
       <c r="AC177" s="19"/>
       <c r="AD177" s="19"/>
     </row>
-    <row r="178" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:30" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="4" t="s">
         <v>634</v>
       </c>
@@ -14139,7 +14705,7 @@
       <c r="AC178" s="19"/>
       <c r="AD178" s="19"/>
     </row>
-    <row r="179" spans="1:30" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="13" t="s">
         <v>634</v>
       </c>
@@ -14195,7 +14761,7 @@
       <c r="AC179" s="10"/>
       <c r="AD179" s="10"/>
     </row>
-    <row r="180" spans="1:30" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="13" t="s">
         <v>634</v>
       </c>
@@ -14251,7 +14817,7 @@
       <c r="AC180" s="10"/>
       <c r="AD180" s="10"/>
     </row>
-    <row r="181" spans="1:30" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="13" t="s">
         <v>634</v>
       </c>
@@ -14307,7 +14873,7 @@
       <c r="AC181" s="10"/>
       <c r="AD181" s="10"/>
     </row>
-    <row r="182" spans="1:30" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="13" t="s">
         <v>634</v>
       </c>
@@ -14363,7 +14929,7 @@
       <c r="AC182" s="10"/>
       <c r="AD182" s="10"/>
     </row>
-    <row r="183" spans="1:30" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="13" t="s">
         <v>634</v>
       </c>
@@ -14417,7 +14983,7 @@
       <c r="AC183" s="10"/>
       <c r="AD183" s="10"/>
     </row>
-    <row r="184" spans="1:30" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="13" t="s">
         <v>634</v>
       </c>
@@ -14473,7 +15039,7 @@
       <c r="AC184" s="10"/>
       <c r="AD184" s="10"/>
     </row>
-    <row r="185" spans="1:30" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="13" t="s">
         <v>634</v>
       </c>
@@ -14529,7 +15095,7 @@
       <c r="AC185" s="10"/>
       <c r="AD185" s="10"/>
     </row>
-    <row r="186" spans="1:30" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="13" t="s">
         <v>634</v>
       </c>
@@ -14587,7 +15153,7 @@
       <c r="AC186" s="10"/>
       <c r="AD186" s="10"/>
     </row>
-    <row r="187" spans="1:30" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:30" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="13" t="s">
         <v>634</v>
       </c>
@@ -14643,7 +15209,7 @@
       <c r="AC187" s="10"/>
       <c r="AD187" s="17"/>
     </row>
-    <row r="188" spans="1:30" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="13" t="s">
         <v>634</v>
       </c>
@@ -14695,7 +15261,7 @@
       <c r="AC188" s="10"/>
       <c r="AD188" s="10"/>
     </row>
-    <row r="189" spans="1:30" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:30" ht="27.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="13" t="s">
         <v>634</v>
       </c>
@@ -14749,7 +15315,7 @@
       <c r="AC189" s="10"/>
       <c r="AD189" s="10"/>
     </row>
-    <row r="190" spans="1:30" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="13" t="s">
         <v>634</v>
       </c>
@@ -14801,7 +15367,7 @@
       <c r="AC190" s="10"/>
       <c r="AD190" s="10"/>
     </row>
-    <row r="191" spans="1:30" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:30" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="13" t="s">
         <v>634</v>
       </c>
@@ -14853,7 +15419,7 @@
       <c r="AC191" s="10"/>
       <c r="AD191" s="10"/>
     </row>
-    <row r="192" spans="1:30" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="13" t="s">
         <v>634</v>
       </c>
@@ -14907,7 +15473,7 @@
       <c r="AC192" s="10"/>
       <c r="AD192" s="10"/>
     </row>
-    <row r="193" spans="1:30" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="13" t="s">
         <v>634</v>
       </c>
@@ -14959,7 +15525,7 @@
       <c r="AC193" s="10"/>
       <c r="AD193" s="10"/>
     </row>
-    <row r="194" spans="1:30" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="13" t="s">
         <v>634</v>
       </c>
@@ -15013,7 +15579,7 @@
       <c r="AC194" s="10"/>
       <c r="AD194" s="10"/>
     </row>
-    <row r="195" spans="1:30" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="13" t="s">
         <v>634</v>
       </c>
@@ -15067,7 +15633,7 @@
       <c r="AC195" s="10"/>
       <c r="AD195" s="10"/>
     </row>
-    <row r="196" spans="1:30" ht="32" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:30" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="13" t="s">
         <v>634</v>
       </c>
@@ -15121,7 +15687,7 @@
       <c r="AC196" s="10"/>
       <c r="AD196" s="10"/>
     </row>
-    <row r="197" spans="1:30" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="13" t="s">
         <v>634</v>
       </c>
@@ -15175,7 +15741,7 @@
       <c r="AC197" s="10"/>
       <c r="AD197" s="10"/>
     </row>
-    <row r="198" spans="1:30" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="13" t="s">
         <v>634</v>
       </c>
@@ -15229,7 +15795,7 @@
       <c r="AC198" s="10"/>
       <c r="AD198" s="10"/>
     </row>
-    <row r="199" spans="1:30" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="13" t="s">
         <v>634</v>
       </c>
@@ -15283,7 +15849,7 @@
       <c r="AC199" s="10"/>
       <c r="AD199" s="10"/>
     </row>
-    <row r="200" spans="1:30" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="13" t="s">
         <v>634</v>
       </c>
@@ -15337,7 +15903,7 @@
       <c r="AC200" s="10"/>
       <c r="AD200" s="10"/>
     </row>
-    <row r="201" spans="1:30" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="13" t="s">
         <v>634</v>
       </c>
@@ -15389,7 +15955,7 @@
       <c r="AC201" s="10"/>
       <c r="AD201" s="10"/>
     </row>
-    <row r="202" spans="1:30" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="13" t="s">
         <v>634</v>
       </c>
@@ -15441,7 +16007,7 @@
       <c r="AC202" s="10"/>
       <c r="AD202" s="10"/>
     </row>
-    <row r="203" spans="1:30" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="13" t="s">
         <v>634</v>
       </c>
@@ -15493,7 +16059,7 @@
       <c r="AC203" s="10"/>
       <c r="AD203" s="10"/>
     </row>
-    <row r="204" spans="1:30" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:30" ht="30.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="13" t="s">
         <v>634</v>
       </c>
@@ -15545,7 +16111,7 @@
       <c r="AC204" s="10"/>
       <c r="AD204" s="10"/>
     </row>
-    <row r="205" spans="1:30" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="13" t="s">
         <v>634</v>
       </c>
@@ -15597,164 +16163,3446 @@
       <c r="AC205" s="10"/>
       <c r="AD205" s="10"/>
     </row>
+    <row r="206" spans="1:30" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A206" s="28" t="s">
+        <v>634</v>
+      </c>
+      <c r="B206" s="28" t="s">
+        <v>718</v>
+      </c>
+      <c r="C206" s="27" t="s">
+        <v>719</v>
+      </c>
+      <c r="D206" s="27" t="s">
+        <v>733</v>
+      </c>
+      <c r="E206" s="27">
+        <v>88</v>
+      </c>
+      <c r="F206" s="27" t="s">
+        <v>810</v>
+      </c>
+      <c r="G206" s="27" t="s">
+        <v>720</v>
+      </c>
+      <c r="H206" s="27" t="s">
+        <v>721</v>
+      </c>
+      <c r="I206" s="27">
+        <v>54919462</v>
+      </c>
+      <c r="J206" s="27" t="s">
+        <v>721</v>
+      </c>
+      <c r="K206" s="27" t="s">
+        <v>722</v>
+      </c>
+      <c r="L206" s="27" t="s">
+        <v>723</v>
+      </c>
+      <c r="M206" s="27" t="s">
+        <v>736</v>
+      </c>
+      <c r="N206" s="27"/>
+      <c r="O206" s="27"/>
+      <c r="P206" s="27"/>
+      <c r="Q206" s="27"/>
+      <c r="R206" s="27"/>
+      <c r="S206" s="27"/>
+      <c r="T206" s="27"/>
+      <c r="U206" s="27" t="s">
+        <v>739</v>
+      </c>
+      <c r="V206" s="27"/>
+      <c r="W206" s="27"/>
+      <c r="X206" s="27" t="s">
+        <v>811</v>
+      </c>
+      <c r="Y206" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z206" s="27"/>
+      <c r="AA206" s="27"/>
+      <c r="AB206" s="27"/>
+      <c r="AC206" s="27"/>
+      <c r="AD206" s="27" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="207" spans="1:30" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A207" s="28" t="s">
+        <v>634</v>
+      </c>
+      <c r="B207" s="28" t="s">
+        <v>718</v>
+      </c>
+      <c r="C207" s="27" t="s">
+        <v>732</v>
+      </c>
+      <c r="D207" s="27" t="s">
+        <v>733</v>
+      </c>
+      <c r="E207" s="27">
+        <v>64</v>
+      </c>
+      <c r="F207" s="27" t="s">
+        <v>812</v>
+      </c>
+      <c r="G207" s="27" t="s">
+        <v>720</v>
+      </c>
+      <c r="H207" s="27" t="s">
+        <v>721</v>
+      </c>
+      <c r="I207" s="27">
+        <v>47971218</v>
+      </c>
+      <c r="J207" s="27" t="s">
+        <v>721</v>
+      </c>
+      <c r="K207" s="27" t="s">
+        <v>722</v>
+      </c>
+      <c r="L207" s="27" t="s">
+        <v>723</v>
+      </c>
+      <c r="M207" s="27" t="s">
+        <v>757</v>
+      </c>
+      <c r="N207" s="27"/>
+      <c r="O207" s="27"/>
+      <c r="P207" s="27"/>
+      <c r="Q207" s="27"/>
+      <c r="R207" s="27"/>
+      <c r="S207" s="27"/>
+      <c r="T207" s="27"/>
+      <c r="U207" s="27" t="s">
+        <v>765</v>
+      </c>
+      <c r="V207" s="27"/>
+      <c r="W207" s="27"/>
+      <c r="X207" s="27" t="s">
+        <v>813</v>
+      </c>
+      <c r="Y207" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z207" s="27"/>
+      <c r="AA207" s="27"/>
+      <c r="AB207" s="27"/>
+      <c r="AC207" s="27"/>
+      <c r="AD207" s="27" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="208" spans="1:30" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A208" s="28" t="s">
+        <v>634</v>
+      </c>
+      <c r="B208" s="28" t="s">
+        <v>718</v>
+      </c>
+      <c r="C208" s="27" t="s">
+        <v>742</v>
+      </c>
+      <c r="D208" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="E208" s="27">
+        <v>83</v>
+      </c>
+      <c r="F208" s="27" t="s">
+        <v>814</v>
+      </c>
+      <c r="G208" s="27" t="s">
+        <v>720</v>
+      </c>
+      <c r="H208" s="27" t="s">
+        <v>721</v>
+      </c>
+      <c r="I208" s="27">
+        <v>85477944</v>
+      </c>
+      <c r="J208" s="27" t="s">
+        <v>721</v>
+      </c>
+      <c r="K208" s="27" t="s">
+        <v>722</v>
+      </c>
+      <c r="L208" s="27" t="s">
+        <v>723</v>
+      </c>
+      <c r="M208" s="27" t="s">
+        <v>750</v>
+      </c>
+      <c r="N208" s="27"/>
+      <c r="O208" s="27"/>
+      <c r="P208" s="27"/>
+      <c r="Q208" s="27"/>
+      <c r="R208" s="27"/>
+      <c r="S208" s="27"/>
+      <c r="T208" s="27"/>
+      <c r="U208" s="27" t="s">
+        <v>746</v>
+      </c>
+      <c r="V208" s="27"/>
+      <c r="W208" s="27"/>
+      <c r="X208" s="27" t="s">
+        <v>815</v>
+      </c>
+      <c r="Y208" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z208" s="27"/>
+      <c r="AA208" s="27"/>
+      <c r="AB208" s="27" t="s">
+        <v>716</v>
+      </c>
+      <c r="AC208" s="27"/>
+      <c r="AD208" s="27" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="209" spans="1:30" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A209" s="28" t="s">
+        <v>634</v>
+      </c>
+      <c r="B209" s="28" t="s">
+        <v>718</v>
+      </c>
+      <c r="C209" s="27" t="s">
+        <v>749</v>
+      </c>
+      <c r="D209" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="E209" s="27">
+        <v>83</v>
+      </c>
+      <c r="F209" s="27" t="s">
+        <v>816</v>
+      </c>
+      <c r="G209" s="27" t="s">
+        <v>720</v>
+      </c>
+      <c r="H209" s="27" t="s">
+        <v>721</v>
+      </c>
+      <c r="I209" s="27">
+        <v>75982913</v>
+      </c>
+      <c r="J209" s="27" t="s">
+        <v>721</v>
+      </c>
+      <c r="K209" s="27" t="s">
+        <v>722</v>
+      </c>
+      <c r="L209" s="27" t="s">
+        <v>723</v>
+      </c>
+      <c r="M209" s="27" t="s">
+        <v>763</v>
+      </c>
+      <c r="N209" s="27"/>
+      <c r="O209" s="27"/>
+      <c r="P209" s="27"/>
+      <c r="Q209" s="27"/>
+      <c r="R209" s="27"/>
+      <c r="S209" s="27"/>
+      <c r="T209" s="27"/>
+      <c r="U209" s="27" t="s">
+        <v>735</v>
+      </c>
+      <c r="V209" s="27"/>
+      <c r="W209" s="27"/>
+      <c r="X209" s="27" t="s">
+        <v>817</v>
+      </c>
+      <c r="Y209" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z209" s="27"/>
+      <c r="AA209" s="27"/>
+      <c r="AB209" s="27"/>
+      <c r="AC209" s="27"/>
+      <c r="AD209" s="27" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="210" spans="1:30" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A210" s="28" t="s">
+        <v>634</v>
+      </c>
+      <c r="B210" s="28" t="s">
+        <v>718</v>
+      </c>
+      <c r="C210" s="27" t="s">
+        <v>753</v>
+      </c>
+      <c r="D210" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="E210" s="27">
+        <v>68</v>
+      </c>
+      <c r="F210" s="27" t="s">
+        <v>818</v>
+      </c>
+      <c r="G210" s="27" t="s">
+        <v>720</v>
+      </c>
+      <c r="H210" s="27" t="s">
+        <v>721</v>
+      </c>
+      <c r="I210" s="27">
+        <v>34740689</v>
+      </c>
+      <c r="J210" s="27" t="s">
+        <v>721</v>
+      </c>
+      <c r="K210" s="27" t="s">
+        <v>722</v>
+      </c>
+      <c r="L210" s="27" t="s">
+        <v>723</v>
+      </c>
+      <c r="M210" s="27" t="s">
+        <v>724</v>
+      </c>
+      <c r="N210" s="27"/>
+      <c r="O210" s="27"/>
+      <c r="P210" s="27"/>
+      <c r="Q210" s="27"/>
+      <c r="R210" s="27"/>
+      <c r="S210" s="27"/>
+      <c r="T210" s="27"/>
+      <c r="U210" s="27" t="s">
+        <v>748</v>
+      </c>
+      <c r="V210" s="27"/>
+      <c r="W210" s="27"/>
+      <c r="X210" s="27" t="s">
+        <v>819</v>
+      </c>
+      <c r="Y210" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="Z210" s="27"/>
+      <c r="AA210" s="27"/>
+      <c r="AB210" s="27" t="s">
+        <v>716</v>
+      </c>
+      <c r="AC210" s="27"/>
+      <c r="AD210" s="27" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="211" spans="1:30" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A211" s="28" t="s">
+        <v>634</v>
+      </c>
+      <c r="B211" s="28" t="s">
+        <v>718</v>
+      </c>
+      <c r="C211" s="27" t="s">
+        <v>754</v>
+      </c>
+      <c r="D211" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="E211" s="27">
+        <v>67</v>
+      </c>
+      <c r="F211" s="27" t="s">
+        <v>820</v>
+      </c>
+      <c r="G211" s="27" t="s">
+        <v>720</v>
+      </c>
+      <c r="H211" s="27" t="s">
+        <v>721</v>
+      </c>
+      <c r="I211" s="27">
+        <v>79795523</v>
+      </c>
+      <c r="J211" s="27" t="s">
+        <v>721</v>
+      </c>
+      <c r="K211" s="27" t="s">
+        <v>722</v>
+      </c>
+      <c r="L211" s="27" t="s">
+        <v>723</v>
+      </c>
+      <c r="M211" s="27" t="s">
+        <v>727</v>
+      </c>
+      <c r="N211" s="27"/>
+      <c r="O211" s="27"/>
+      <c r="P211" s="27"/>
+      <c r="Q211" s="27"/>
+      <c r="R211" s="27"/>
+      <c r="S211" s="27"/>
+      <c r="T211" s="27"/>
+      <c r="U211" s="27" t="s">
+        <v>737</v>
+      </c>
+      <c r="V211" s="27"/>
+      <c r="W211" s="27"/>
+      <c r="X211" s="27" t="s">
+        <v>821</v>
+      </c>
+      <c r="Y211" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z211" s="27"/>
+      <c r="AA211" s="27"/>
+      <c r="AB211" s="27"/>
+      <c r="AC211" s="27"/>
+      <c r="AD211" s="27" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="212" spans="1:30" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A212" s="28" t="s">
+        <v>634</v>
+      </c>
+      <c r="B212" s="28" t="s">
+        <v>718</v>
+      </c>
+      <c r="C212" s="27" t="s">
+        <v>758</v>
+      </c>
+      <c r="D212" s="27" t="s">
+        <v>733</v>
+      </c>
+      <c r="E212" s="27">
+        <v>69</v>
+      </c>
+      <c r="F212" s="27" t="s">
+        <v>822</v>
+      </c>
+      <c r="G212" s="27" t="s">
+        <v>720</v>
+      </c>
+      <c r="H212" s="27" t="s">
+        <v>721</v>
+      </c>
+      <c r="I212" s="27">
+        <v>25558287</v>
+      </c>
+      <c r="J212" s="27" t="s">
+        <v>721</v>
+      </c>
+      <c r="K212" s="27" t="s">
+        <v>722</v>
+      </c>
+      <c r="L212" s="27" t="s">
+        <v>723</v>
+      </c>
+      <c r="M212" s="27" t="s">
+        <v>731</v>
+      </c>
+      <c r="N212" s="27"/>
+      <c r="O212" s="27"/>
+      <c r="P212" s="27"/>
+      <c r="Q212" s="27"/>
+      <c r="R212" s="27"/>
+      <c r="S212" s="27"/>
+      <c r="T212" s="27"/>
+      <c r="U212" s="27" t="s">
+        <v>741</v>
+      </c>
+      <c r="V212" s="27"/>
+      <c r="W212" s="27"/>
+      <c r="X212" s="27" t="s">
+        <v>823</v>
+      </c>
+      <c r="Y212" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="Z212" s="27"/>
+      <c r="AA212" s="27"/>
+      <c r="AB212" s="27"/>
+      <c r="AC212" s="27"/>
+      <c r="AD212" s="27" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="213" spans="1:30" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A213" s="28" t="s">
+        <v>634</v>
+      </c>
+      <c r="B213" s="28" t="s">
+        <v>718</v>
+      </c>
+      <c r="C213" s="27" t="s">
+        <v>759</v>
+      </c>
+      <c r="D213" s="27" t="s">
+        <v>733</v>
+      </c>
+      <c r="E213" s="27">
+        <v>73</v>
+      </c>
+      <c r="F213" s="27" t="s">
+        <v>824</v>
+      </c>
+      <c r="G213" s="27" t="s">
+        <v>720</v>
+      </c>
+      <c r="H213" s="27" t="s">
+        <v>721</v>
+      </c>
+      <c r="I213" s="27">
+        <v>49463935</v>
+      </c>
+      <c r="J213" s="27" t="s">
+        <v>721</v>
+      </c>
+      <c r="K213" s="27" t="s">
+        <v>722</v>
+      </c>
+      <c r="L213" s="27" t="s">
+        <v>723</v>
+      </c>
+      <c r="M213" s="27" t="s">
+        <v>763</v>
+      </c>
+      <c r="N213" s="27"/>
+      <c r="O213" s="27"/>
+      <c r="P213" s="27"/>
+      <c r="Q213" s="27"/>
+      <c r="R213" s="27"/>
+      <c r="S213" s="27"/>
+      <c r="T213" s="27"/>
+      <c r="U213" s="27" t="s">
+        <v>752</v>
+      </c>
+      <c r="V213" s="27"/>
+      <c r="W213" s="27"/>
+      <c r="X213" s="27" t="s">
+        <v>825</v>
+      </c>
+      <c r="Y213" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="Z213" s="27"/>
+      <c r="AA213" s="27"/>
+      <c r="AB213" s="27" t="s">
+        <v>716</v>
+      </c>
+      <c r="AC213" s="27"/>
+      <c r="AD213" s="27" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="214" spans="1:30" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A214" s="28" t="s">
+        <v>634</v>
+      </c>
+      <c r="B214" s="28" t="s">
+        <v>718</v>
+      </c>
+      <c r="C214" s="27" t="s">
+        <v>762</v>
+      </c>
+      <c r="D214" s="27" t="s">
+        <v>733</v>
+      </c>
+      <c r="E214" s="27">
+        <v>62</v>
+      </c>
+      <c r="F214" s="27" t="s">
+        <v>826</v>
+      </c>
+      <c r="G214" s="27" t="s">
+        <v>720</v>
+      </c>
+      <c r="H214" s="27" t="s">
+        <v>721</v>
+      </c>
+      <c r="I214" s="27">
+        <v>71700904</v>
+      </c>
+      <c r="J214" s="27" t="s">
+        <v>721</v>
+      </c>
+      <c r="K214" s="27" t="s">
+        <v>722</v>
+      </c>
+      <c r="L214" s="27" t="s">
+        <v>723</v>
+      </c>
+      <c r="M214" s="27" t="s">
+        <v>724</v>
+      </c>
+      <c r="N214" s="27"/>
+      <c r="O214" s="27"/>
+      <c r="P214" s="27"/>
+      <c r="Q214" s="27"/>
+      <c r="R214" s="27"/>
+      <c r="S214" s="27"/>
+      <c r="T214" s="27"/>
+      <c r="U214" s="27" t="s">
+        <v>750</v>
+      </c>
+      <c r="V214" s="27"/>
+      <c r="W214" s="27"/>
+      <c r="X214" s="27" t="s">
+        <v>827</v>
+      </c>
+      <c r="Y214" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z214" s="27"/>
+      <c r="AA214" s="27"/>
+      <c r="AB214" s="27"/>
+      <c r="AC214" s="27"/>
+      <c r="AD214" s="27" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="215" spans="1:30" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A215" s="28" t="s">
+        <v>634</v>
+      </c>
+      <c r="B215" s="28" t="s">
+        <v>718</v>
+      </c>
+      <c r="C215" s="27" t="s">
+        <v>764</v>
+      </c>
+      <c r="D215" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="E215" s="27">
+        <v>74</v>
+      </c>
+      <c r="F215" s="27" t="s">
+        <v>809</v>
+      </c>
+      <c r="G215" s="27" t="s">
+        <v>720</v>
+      </c>
+      <c r="H215" s="27" t="s">
+        <v>721</v>
+      </c>
+      <c r="I215" s="27">
+        <v>52741337</v>
+      </c>
+      <c r="J215" s="27" t="s">
+        <v>721</v>
+      </c>
+      <c r="K215" s="27" t="s">
+        <v>722</v>
+      </c>
+      <c r="L215" s="27" t="s">
+        <v>723</v>
+      </c>
+      <c r="M215" s="27" t="s">
+        <v>760</v>
+      </c>
+      <c r="N215" s="27"/>
+      <c r="O215" s="27"/>
+      <c r="P215" s="27"/>
+      <c r="Q215" s="27"/>
+      <c r="R215" s="27"/>
+      <c r="S215" s="27"/>
+      <c r="T215" s="27"/>
+      <c r="U215" s="27" t="s">
+        <v>760</v>
+      </c>
+      <c r="V215" s="27"/>
+      <c r="W215" s="27"/>
+      <c r="X215" s="27" t="s">
+        <v>828</v>
+      </c>
+      <c r="Y215" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="Z215" s="27"/>
+      <c r="AA215" s="27"/>
+      <c r="AB215" s="27" t="s">
+        <v>716</v>
+      </c>
+      <c r="AC215" s="27"/>
+      <c r="AD215" s="27" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="216" spans="1:30" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A216" s="28" t="s">
+        <v>634</v>
+      </c>
+      <c r="B216" s="28" t="s">
+        <v>718</v>
+      </c>
+      <c r="C216" s="27" t="s">
+        <v>767</v>
+      </c>
+      <c r="D216" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="E216" s="27">
+        <v>74</v>
+      </c>
+      <c r="F216" s="27" t="s">
+        <v>829</v>
+      </c>
+      <c r="G216" s="27" t="s">
+        <v>720</v>
+      </c>
+      <c r="H216" s="27" t="s">
+        <v>721</v>
+      </c>
+      <c r="I216" s="27">
+        <v>77091794</v>
+      </c>
+      <c r="J216" s="27" t="s">
+        <v>721</v>
+      </c>
+      <c r="K216" s="27" t="s">
+        <v>722</v>
+      </c>
+      <c r="L216" s="27" t="s">
+        <v>723</v>
+      </c>
+      <c r="M216" s="27" t="s">
+        <v>760</v>
+      </c>
+      <c r="N216" s="27"/>
+      <c r="O216" s="27"/>
+      <c r="P216" s="27"/>
+      <c r="Q216" s="27"/>
+      <c r="R216" s="27"/>
+      <c r="S216" s="27"/>
+      <c r="T216" s="27"/>
+      <c r="U216" s="27" t="s">
+        <v>739</v>
+      </c>
+      <c r="V216" s="27"/>
+      <c r="W216" s="27"/>
+      <c r="X216" s="27" t="s">
+        <v>830</v>
+      </c>
+      <c r="Y216" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z216" s="27"/>
+      <c r="AA216" s="27"/>
+      <c r="AB216" s="27"/>
+      <c r="AC216" s="27"/>
+      <c r="AD216" s="27" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="217" spans="1:30" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A217" s="28" t="s">
+        <v>634</v>
+      </c>
+      <c r="B217" s="28" t="s">
+        <v>718</v>
+      </c>
+      <c r="C217" s="27" t="s">
+        <v>768</v>
+      </c>
+      <c r="D217" s="27" t="s">
+        <v>733</v>
+      </c>
+      <c r="E217" s="27">
+        <v>60</v>
+      </c>
+      <c r="F217" s="27" t="s">
+        <v>831</v>
+      </c>
+      <c r="G217" s="27" t="s">
+        <v>720</v>
+      </c>
+      <c r="H217" s="27" t="s">
+        <v>721</v>
+      </c>
+      <c r="I217" s="27">
+        <v>66405044</v>
+      </c>
+      <c r="J217" s="27" t="s">
+        <v>721</v>
+      </c>
+      <c r="K217" s="27" t="s">
+        <v>722</v>
+      </c>
+      <c r="L217" s="27" t="s">
+        <v>723</v>
+      </c>
+      <c r="M217" s="27" t="s">
+        <v>738</v>
+      </c>
+      <c r="N217" s="27"/>
+      <c r="O217" s="27"/>
+      <c r="P217" s="27"/>
+      <c r="Q217" s="27"/>
+      <c r="R217" s="27"/>
+      <c r="S217" s="27"/>
+      <c r="T217" s="27"/>
+      <c r="U217" s="27" t="s">
+        <v>736</v>
+      </c>
+      <c r="V217" s="27"/>
+      <c r="W217" s="27"/>
+      <c r="X217" s="27" t="s">
+        <v>832</v>
+      </c>
+      <c r="Y217" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z217" s="27"/>
+      <c r="AA217" s="27"/>
+      <c r="AB217" s="27" t="s">
+        <v>716</v>
+      </c>
+      <c r="AC217" s="27"/>
+      <c r="AD217" s="27" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="218" spans="1:30" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A218" s="28" t="s">
+        <v>634</v>
+      </c>
+      <c r="B218" s="28" t="s">
+        <v>718</v>
+      </c>
+      <c r="C218" s="27" t="s">
+        <v>769</v>
+      </c>
+      <c r="D218" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="E218" s="27">
+        <v>76</v>
+      </c>
+      <c r="F218" s="27" t="s">
+        <v>833</v>
+      </c>
+      <c r="G218" s="27" t="s">
+        <v>720</v>
+      </c>
+      <c r="H218" s="27" t="s">
+        <v>721</v>
+      </c>
+      <c r="I218" s="27">
+        <v>67118123</v>
+      </c>
+      <c r="J218" s="27" t="s">
+        <v>721</v>
+      </c>
+      <c r="K218" s="27" t="s">
+        <v>722</v>
+      </c>
+      <c r="L218" s="27" t="s">
+        <v>723</v>
+      </c>
+      <c r="M218" s="27" t="s">
+        <v>725</v>
+      </c>
+      <c r="N218" s="27"/>
+      <c r="O218" s="27"/>
+      <c r="P218" s="27"/>
+      <c r="Q218" s="27"/>
+      <c r="R218" s="27"/>
+      <c r="S218" s="27"/>
+      <c r="T218" s="27"/>
+      <c r="U218" s="27" t="s">
+        <v>729</v>
+      </c>
+      <c r="V218" s="27"/>
+      <c r="W218" s="27"/>
+      <c r="X218" s="27" t="s">
+        <v>834</v>
+      </c>
+      <c r="Y218" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z218" s="27"/>
+      <c r="AA218" s="27"/>
+      <c r="AB218" s="27"/>
+      <c r="AC218" s="27"/>
+      <c r="AD218" s="27" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="219" spans="1:30" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A219" s="28" t="s">
+        <v>634</v>
+      </c>
+      <c r="B219" s="28" t="s">
+        <v>718</v>
+      </c>
+      <c r="C219" s="27" t="s">
+        <v>771</v>
+      </c>
+      <c r="D219" s="27" t="s">
+        <v>733</v>
+      </c>
+      <c r="E219" s="27">
+        <v>89</v>
+      </c>
+      <c r="F219" s="27" t="s">
+        <v>835</v>
+      </c>
+      <c r="G219" s="27" t="s">
+        <v>720</v>
+      </c>
+      <c r="H219" s="27" t="s">
+        <v>721</v>
+      </c>
+      <c r="I219" s="27">
+        <v>78193969</v>
+      </c>
+      <c r="J219" s="27" t="s">
+        <v>721</v>
+      </c>
+      <c r="K219" s="27" t="s">
+        <v>722</v>
+      </c>
+      <c r="L219" s="27" t="s">
+        <v>723</v>
+      </c>
+      <c r="M219" s="27" t="s">
+        <v>734</v>
+      </c>
+      <c r="N219" s="27"/>
+      <c r="O219" s="27"/>
+      <c r="P219" s="27"/>
+      <c r="Q219" s="27"/>
+      <c r="R219" s="27"/>
+      <c r="S219" s="27"/>
+      <c r="T219" s="27"/>
+      <c r="U219" s="27" t="s">
+        <v>739</v>
+      </c>
+      <c r="V219" s="27"/>
+      <c r="W219" s="27"/>
+      <c r="X219" s="27" t="s">
+        <v>836</v>
+      </c>
+      <c r="Y219" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z219" s="27"/>
+      <c r="AA219" s="27"/>
+      <c r="AB219" s="27" t="s">
+        <v>716</v>
+      </c>
+      <c r="AC219" s="27"/>
+      <c r="AD219" s="27" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="220" spans="1:30" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A220" s="28" t="s">
+        <v>634</v>
+      </c>
+      <c r="B220" s="28" t="s">
+        <v>718</v>
+      </c>
+      <c r="C220" s="27" t="s">
+        <v>772</v>
+      </c>
+      <c r="D220" s="27" t="s">
+        <v>733</v>
+      </c>
+      <c r="E220" s="27">
+        <v>61</v>
+      </c>
+      <c r="F220" s="27" t="s">
+        <v>837</v>
+      </c>
+      <c r="G220" s="27" t="s">
+        <v>720</v>
+      </c>
+      <c r="H220" s="27" t="s">
+        <v>721</v>
+      </c>
+      <c r="I220" s="27">
+        <v>11905446</v>
+      </c>
+      <c r="J220" s="27" t="s">
+        <v>721</v>
+      </c>
+      <c r="K220" s="27" t="s">
+        <v>722</v>
+      </c>
+      <c r="L220" s="27" t="s">
+        <v>723</v>
+      </c>
+      <c r="M220" s="27" t="s">
+        <v>761</v>
+      </c>
+      <c r="N220" s="27"/>
+      <c r="O220" s="27"/>
+      <c r="P220" s="27"/>
+      <c r="Q220" s="27"/>
+      <c r="R220" s="27"/>
+      <c r="S220" s="27"/>
+      <c r="T220" s="27"/>
+      <c r="U220" s="27" t="s">
+        <v>724</v>
+      </c>
+      <c r="V220" s="27"/>
+      <c r="W220" s="27"/>
+      <c r="X220" s="27" t="s">
+        <v>838</v>
+      </c>
+      <c r="Y220" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z220" s="27"/>
+      <c r="AA220" s="27"/>
+      <c r="AB220" s="27"/>
+      <c r="AC220" s="27"/>
+      <c r="AD220" s="27" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="221" spans="1:30" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A221" s="28" t="s">
+        <v>634</v>
+      </c>
+      <c r="B221" s="28" t="s">
+        <v>718</v>
+      </c>
+      <c r="C221" s="27" t="s">
+        <v>773</v>
+      </c>
+      <c r="D221" s="27" t="s">
+        <v>733</v>
+      </c>
+      <c r="E221" s="27">
+        <v>65</v>
+      </c>
+      <c r="F221" s="27" t="s">
+        <v>839</v>
+      </c>
+      <c r="G221" s="27" t="s">
+        <v>720</v>
+      </c>
+      <c r="H221" s="27" t="s">
+        <v>721</v>
+      </c>
+      <c r="I221" s="27">
+        <v>77705568</v>
+      </c>
+      <c r="J221" s="27" t="s">
+        <v>721</v>
+      </c>
+      <c r="K221" s="27" t="s">
+        <v>722</v>
+      </c>
+      <c r="L221" s="27" t="s">
+        <v>723</v>
+      </c>
+      <c r="M221" s="27" t="s">
+        <v>747</v>
+      </c>
+      <c r="N221" s="27"/>
+      <c r="O221" s="27"/>
+      <c r="P221" s="27"/>
+      <c r="Q221" s="27"/>
+      <c r="R221" s="27"/>
+      <c r="S221" s="27"/>
+      <c r="T221" s="27"/>
+      <c r="U221" s="27" t="s">
+        <v>729</v>
+      </c>
+      <c r="V221" s="27"/>
+      <c r="W221" s="27"/>
+      <c r="X221" s="27" t="s">
+        <v>840</v>
+      </c>
+      <c r="Y221" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z221" s="27"/>
+      <c r="AA221" s="27"/>
+      <c r="AB221" s="27" t="s">
+        <v>716</v>
+      </c>
+      <c r="AC221" s="27"/>
+      <c r="AD221" s="27" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="222" spans="1:30" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A222" s="28" t="s">
+        <v>634</v>
+      </c>
+      <c r="B222" s="28" t="s">
+        <v>718</v>
+      </c>
+      <c r="C222" s="27" t="s">
+        <v>774</v>
+      </c>
+      <c r="D222" s="27" t="s">
+        <v>733</v>
+      </c>
+      <c r="E222" s="27">
+        <v>73</v>
+      </c>
+      <c r="F222" s="27" t="s">
+        <v>841</v>
+      </c>
+      <c r="G222" s="27" t="s">
+        <v>720</v>
+      </c>
+      <c r="H222" s="27" t="s">
+        <v>721</v>
+      </c>
+      <c r="I222" s="27">
+        <v>48683133</v>
+      </c>
+      <c r="J222" s="27" t="s">
+        <v>721</v>
+      </c>
+      <c r="K222" s="27" t="s">
+        <v>722</v>
+      </c>
+      <c r="L222" s="27" t="s">
+        <v>723</v>
+      </c>
+      <c r="M222" s="27" t="s">
+        <v>756</v>
+      </c>
+      <c r="N222" s="27"/>
+      <c r="O222" s="27"/>
+      <c r="P222" s="27"/>
+      <c r="Q222" s="27"/>
+      <c r="R222" s="27"/>
+      <c r="S222" s="27"/>
+      <c r="T222" s="27"/>
+      <c r="U222" s="27" t="s">
+        <v>755</v>
+      </c>
+      <c r="V222" s="27"/>
+      <c r="W222" s="27"/>
+      <c r="X222" s="27" t="s">
+        <v>842</v>
+      </c>
+      <c r="Y222" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="Z222" s="27"/>
+      <c r="AA222" s="27"/>
+      <c r="AB222" s="27" t="s">
+        <v>716</v>
+      </c>
+      <c r="AC222" s="27"/>
+      <c r="AD222" s="27" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="223" spans="1:30" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A223" s="28" t="s">
+        <v>634</v>
+      </c>
+      <c r="B223" s="28" t="s">
+        <v>718</v>
+      </c>
+      <c r="C223" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="D223" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="E223" s="27">
+        <v>65</v>
+      </c>
+      <c r="F223" s="27" t="s">
+        <v>843</v>
+      </c>
+      <c r="G223" s="27" t="s">
+        <v>720</v>
+      </c>
+      <c r="H223" s="27" t="s">
+        <v>721</v>
+      </c>
+      <c r="I223" s="27">
+        <v>90523064</v>
+      </c>
+      <c r="J223" s="27" t="s">
+        <v>721</v>
+      </c>
+      <c r="K223" s="27" t="s">
+        <v>722</v>
+      </c>
+      <c r="L223" s="27" t="s">
+        <v>723</v>
+      </c>
+      <c r="M223" s="27" t="s">
+        <v>751</v>
+      </c>
+      <c r="N223" s="27"/>
+      <c r="O223" s="27"/>
+      <c r="P223" s="27"/>
+      <c r="Q223" s="27"/>
+      <c r="R223" s="27"/>
+      <c r="S223" s="27"/>
+      <c r="T223" s="27"/>
+      <c r="U223" s="27" t="s">
+        <v>761</v>
+      </c>
+      <c r="V223" s="27"/>
+      <c r="W223" s="27"/>
+      <c r="X223" s="27" t="s">
+        <v>838</v>
+      </c>
+      <c r="Y223" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z223" s="27"/>
+      <c r="AA223" s="27"/>
+      <c r="AB223" s="27" t="s">
+        <v>716</v>
+      </c>
+      <c r="AC223" s="27"/>
+      <c r="AD223" s="27" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="224" spans="1:30" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A224" s="28" t="s">
+        <v>634</v>
+      </c>
+      <c r="B224" s="28" t="s">
+        <v>718</v>
+      </c>
+      <c r="C224" s="27" t="s">
+        <v>776</v>
+      </c>
+      <c r="D224" s="27" t="s">
+        <v>733</v>
+      </c>
+      <c r="E224" s="27">
+        <v>88</v>
+      </c>
+      <c r="F224" s="27" t="s">
+        <v>844</v>
+      </c>
+      <c r="G224" s="27" t="s">
+        <v>720</v>
+      </c>
+      <c r="H224" s="27" t="s">
+        <v>721</v>
+      </c>
+      <c r="I224" s="27">
+        <v>80380949</v>
+      </c>
+      <c r="J224" s="27" t="s">
+        <v>721</v>
+      </c>
+      <c r="K224" s="27" t="s">
+        <v>722</v>
+      </c>
+      <c r="L224" s="27" t="s">
+        <v>723</v>
+      </c>
+      <c r="M224" s="27" t="s">
+        <v>745</v>
+      </c>
+      <c r="N224" s="27"/>
+      <c r="O224" s="27"/>
+      <c r="P224" s="27"/>
+      <c r="Q224" s="27"/>
+      <c r="R224" s="27"/>
+      <c r="S224" s="27"/>
+      <c r="T224" s="27"/>
+      <c r="U224" s="27" t="s">
+        <v>752</v>
+      </c>
+      <c r="V224" s="27"/>
+      <c r="W224" s="27"/>
+      <c r="X224" s="27" t="s">
+        <v>845</v>
+      </c>
+      <c r="Y224" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z224" s="27"/>
+      <c r="AA224" s="27"/>
+      <c r="AB224" s="27"/>
+      <c r="AC224" s="27"/>
+      <c r="AD224" s="27" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="225" spans="1:30" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A225" s="28" t="s">
+        <v>634</v>
+      </c>
+      <c r="B225" s="28" t="s">
+        <v>718</v>
+      </c>
+      <c r="C225" s="27" t="s">
+        <v>777</v>
+      </c>
+      <c r="D225" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="E225" s="27">
+        <v>89</v>
+      </c>
+      <c r="F225" s="27" t="s">
+        <v>846</v>
+      </c>
+      <c r="G225" s="27" t="s">
+        <v>720</v>
+      </c>
+      <c r="H225" s="27" t="s">
+        <v>721</v>
+      </c>
+      <c r="I225" s="27">
+        <v>25982179</v>
+      </c>
+      <c r="J225" s="27" t="s">
+        <v>721</v>
+      </c>
+      <c r="K225" s="27" t="s">
+        <v>722</v>
+      </c>
+      <c r="L225" s="27" t="s">
+        <v>723</v>
+      </c>
+      <c r="M225" s="27" t="s">
+        <v>734</v>
+      </c>
+      <c r="N225" s="27"/>
+      <c r="O225" s="27"/>
+      <c r="P225" s="27"/>
+      <c r="Q225" s="27"/>
+      <c r="R225" s="27"/>
+      <c r="S225" s="27"/>
+      <c r="T225" s="27"/>
+      <c r="U225" s="27" t="s">
+        <v>745</v>
+      </c>
+      <c r="V225" s="27"/>
+      <c r="W225" s="27"/>
+      <c r="X225" s="27" t="s">
+        <v>847</v>
+      </c>
+      <c r="Y225" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="Z225" s="27"/>
+      <c r="AA225" s="27"/>
+      <c r="AB225" s="27"/>
+      <c r="AC225" s="27"/>
+      <c r="AD225" s="27" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="226" spans="1:30" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A226" s="28" t="s">
+        <v>634</v>
+      </c>
+      <c r="B226" s="28" t="s">
+        <v>718</v>
+      </c>
+      <c r="C226" s="27" t="s">
+        <v>778</v>
+      </c>
+      <c r="D226" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="E226" s="27">
+        <v>60</v>
+      </c>
+      <c r="F226" s="27" t="s">
+        <v>848</v>
+      </c>
+      <c r="G226" s="27" t="s">
+        <v>720</v>
+      </c>
+      <c r="H226" s="27" t="s">
+        <v>721</v>
+      </c>
+      <c r="I226" s="27">
+        <v>79297524</v>
+      </c>
+      <c r="J226" s="27" t="s">
+        <v>721</v>
+      </c>
+      <c r="K226" s="27" t="s">
+        <v>722</v>
+      </c>
+      <c r="L226" s="27" t="s">
+        <v>723</v>
+      </c>
+      <c r="M226" s="27" t="s">
+        <v>755</v>
+      </c>
+      <c r="N226" s="27"/>
+      <c r="O226" s="27"/>
+      <c r="P226" s="27"/>
+      <c r="Q226" s="27"/>
+      <c r="R226" s="27"/>
+      <c r="S226" s="27"/>
+      <c r="T226" s="27"/>
+      <c r="U226" s="27" t="s">
+        <v>731</v>
+      </c>
+      <c r="V226" s="27"/>
+      <c r="W226" s="27"/>
+      <c r="X226" s="27" t="s">
+        <v>849</v>
+      </c>
+      <c r="Y226" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z226" s="27"/>
+      <c r="AA226" s="27"/>
+      <c r="AB226" s="27"/>
+      <c r="AC226" s="27"/>
+      <c r="AD226" s="27" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="227" spans="1:30" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A227" s="28" t="s">
+        <v>634</v>
+      </c>
+      <c r="B227" s="28" t="s">
+        <v>718</v>
+      </c>
+      <c r="C227" s="27" t="s">
+        <v>779</v>
+      </c>
+      <c r="D227" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="E227" s="27">
+        <v>89</v>
+      </c>
+      <c r="F227" s="27" t="s">
+        <v>850</v>
+      </c>
+      <c r="G227" s="27" t="s">
+        <v>720</v>
+      </c>
+      <c r="H227" s="27" t="s">
+        <v>721</v>
+      </c>
+      <c r="I227" s="27">
+        <v>21507512</v>
+      </c>
+      <c r="J227" s="27" t="s">
+        <v>721</v>
+      </c>
+      <c r="K227" s="27" t="s">
+        <v>722</v>
+      </c>
+      <c r="L227" s="27" t="s">
+        <v>723</v>
+      </c>
+      <c r="M227" s="27" t="s">
+        <v>761</v>
+      </c>
+      <c r="N227" s="27"/>
+      <c r="O227" s="27"/>
+      <c r="P227" s="27"/>
+      <c r="Q227" s="27"/>
+      <c r="R227" s="27"/>
+      <c r="S227" s="27"/>
+      <c r="T227" s="27"/>
+      <c r="U227" s="27" t="s">
+        <v>756</v>
+      </c>
+      <c r="V227" s="27"/>
+      <c r="W227" s="27"/>
+      <c r="X227" s="27" t="s">
+        <v>851</v>
+      </c>
+      <c r="Y227" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z227" s="27"/>
+      <c r="AA227" s="27"/>
+      <c r="AB227" s="27"/>
+      <c r="AC227" s="27"/>
+      <c r="AD227" s="27" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="228" spans="1:30" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A228" s="28" t="s">
+        <v>634</v>
+      </c>
+      <c r="B228" s="28" t="s">
+        <v>718</v>
+      </c>
+      <c r="C228" s="27" t="s">
+        <v>780</v>
+      </c>
+      <c r="D228" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="E228" s="27">
+        <v>88</v>
+      </c>
+      <c r="F228" s="27" t="s">
+        <v>852</v>
+      </c>
+      <c r="G228" s="27" t="s">
+        <v>720</v>
+      </c>
+      <c r="H228" s="27" t="s">
+        <v>721</v>
+      </c>
+      <c r="I228" s="27">
+        <v>66995827</v>
+      </c>
+      <c r="J228" s="27" t="s">
+        <v>721</v>
+      </c>
+      <c r="K228" s="27" t="s">
+        <v>722</v>
+      </c>
+      <c r="L228" s="27" t="s">
+        <v>723</v>
+      </c>
+      <c r="M228" s="27" t="s">
+        <v>747</v>
+      </c>
+      <c r="N228" s="27"/>
+      <c r="O228" s="27"/>
+      <c r="P228" s="27"/>
+      <c r="Q228" s="27"/>
+      <c r="R228" s="27"/>
+      <c r="S228" s="27"/>
+      <c r="T228" s="27"/>
+      <c r="U228" s="27" t="s">
+        <v>755</v>
+      </c>
+      <c r="V228" s="27"/>
+      <c r="W228" s="27"/>
+      <c r="X228" s="27" t="s">
+        <v>851</v>
+      </c>
+      <c r="Y228" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z228" s="27"/>
+      <c r="AA228" s="27"/>
+      <c r="AB228" s="27"/>
+      <c r="AC228" s="27"/>
+      <c r="AD228" s="27" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="229" spans="1:30" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A229" s="28" t="s">
+        <v>634</v>
+      </c>
+      <c r="B229" s="28" t="s">
+        <v>718</v>
+      </c>
+      <c r="C229" s="27" t="s">
+        <v>781</v>
+      </c>
+      <c r="D229" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="E229" s="27">
+        <v>74</v>
+      </c>
+      <c r="F229" s="27" t="s">
+        <v>853</v>
+      </c>
+      <c r="G229" s="27" t="s">
+        <v>720</v>
+      </c>
+      <c r="H229" s="27" t="s">
+        <v>721</v>
+      </c>
+      <c r="I229" s="27">
+        <v>31456055</v>
+      </c>
+      <c r="J229" s="27" t="s">
+        <v>721</v>
+      </c>
+      <c r="K229" s="27" t="s">
+        <v>722</v>
+      </c>
+      <c r="L229" s="27" t="s">
+        <v>723</v>
+      </c>
+      <c r="M229" s="27" t="s">
+        <v>738</v>
+      </c>
+      <c r="N229" s="27"/>
+      <c r="O229" s="27"/>
+      <c r="P229" s="27"/>
+      <c r="Q229" s="27"/>
+      <c r="R229" s="27"/>
+      <c r="S229" s="27"/>
+      <c r="T229" s="27"/>
+      <c r="U229" s="27" t="s">
+        <v>745</v>
+      </c>
+      <c r="V229" s="27"/>
+      <c r="W229" s="27"/>
+      <c r="X229" s="27" t="s">
+        <v>854</v>
+      </c>
+      <c r="Y229" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z229" s="27"/>
+      <c r="AA229" s="27"/>
+      <c r="AB229" s="27"/>
+      <c r="AC229" s="27"/>
+      <c r="AD229" s="27" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="230" spans="1:30" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A230" s="28" t="s">
+        <v>634</v>
+      </c>
+      <c r="B230" s="28" t="s">
+        <v>718</v>
+      </c>
+      <c r="C230" s="27" t="s">
+        <v>782</v>
+      </c>
+      <c r="D230" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="E230" s="27">
+        <v>62</v>
+      </c>
+      <c r="F230" s="27" t="s">
+        <v>855</v>
+      </c>
+      <c r="G230" s="27" t="s">
+        <v>720</v>
+      </c>
+      <c r="H230" s="27" t="s">
+        <v>721</v>
+      </c>
+      <c r="I230" s="27">
+        <v>84237052</v>
+      </c>
+      <c r="J230" s="27" t="s">
+        <v>721</v>
+      </c>
+      <c r="K230" s="27" t="s">
+        <v>722</v>
+      </c>
+      <c r="L230" s="27" t="s">
+        <v>723</v>
+      </c>
+      <c r="M230" s="27" t="s">
+        <v>756</v>
+      </c>
+      <c r="N230" s="27"/>
+      <c r="O230" s="27"/>
+      <c r="P230" s="27"/>
+      <c r="Q230" s="27"/>
+      <c r="R230" s="27"/>
+      <c r="S230" s="27"/>
+      <c r="T230" s="27"/>
+      <c r="U230" s="27" t="s">
+        <v>727</v>
+      </c>
+      <c r="V230" s="27"/>
+      <c r="W230" s="27"/>
+      <c r="X230" s="27" t="s">
+        <v>856</v>
+      </c>
+      <c r="Y230" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z230" s="27"/>
+      <c r="AA230" s="27"/>
+      <c r="AB230" s="27"/>
+      <c r="AC230" s="27"/>
+      <c r="AD230" s="27" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="231" spans="1:30" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A231" s="28" t="s">
+        <v>634</v>
+      </c>
+      <c r="B231" s="28" t="s">
+        <v>718</v>
+      </c>
+      <c r="C231" s="27" t="s">
+        <v>783</v>
+      </c>
+      <c r="D231" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="E231" s="27">
+        <v>68</v>
+      </c>
+      <c r="F231" s="27" t="s">
+        <v>857</v>
+      </c>
+      <c r="G231" s="27" t="s">
+        <v>720</v>
+      </c>
+      <c r="H231" s="27" t="s">
+        <v>721</v>
+      </c>
+      <c r="I231" s="27">
+        <v>87439657</v>
+      </c>
+      <c r="J231" s="27" t="s">
+        <v>721</v>
+      </c>
+      <c r="K231" s="27" t="s">
+        <v>722</v>
+      </c>
+      <c r="L231" s="27" t="s">
+        <v>723</v>
+      </c>
+      <c r="M231" s="27" t="s">
+        <v>727</v>
+      </c>
+      <c r="N231" s="27"/>
+      <c r="O231" s="27"/>
+      <c r="P231" s="27"/>
+      <c r="Q231" s="27"/>
+      <c r="R231" s="27"/>
+      <c r="S231" s="27"/>
+      <c r="T231" s="27"/>
+      <c r="U231" s="27" t="s">
+        <v>763</v>
+      </c>
+      <c r="V231" s="27"/>
+      <c r="W231" s="27"/>
+      <c r="X231" s="27" t="s">
+        <v>858</v>
+      </c>
+      <c r="Y231" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z231" s="27"/>
+      <c r="AA231" s="27"/>
+      <c r="AB231" s="27"/>
+      <c r="AC231" s="27"/>
+      <c r="AD231" s="27" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="232" spans="1:30" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A232" s="28" t="s">
+        <v>634</v>
+      </c>
+      <c r="B232" s="28" t="s">
+        <v>718</v>
+      </c>
+      <c r="C232" s="27" t="s">
+        <v>784</v>
+      </c>
+      <c r="D232" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="E232" s="27">
+        <v>67</v>
+      </c>
+      <c r="F232" s="27" t="s">
+        <v>859</v>
+      </c>
+      <c r="G232" s="27" t="s">
+        <v>720</v>
+      </c>
+      <c r="H232" s="27" t="s">
+        <v>721</v>
+      </c>
+      <c r="I232" s="27">
+        <v>42171203</v>
+      </c>
+      <c r="J232" s="27" t="s">
+        <v>721</v>
+      </c>
+      <c r="K232" s="27" t="s">
+        <v>722</v>
+      </c>
+      <c r="L232" s="27" t="s">
+        <v>723</v>
+      </c>
+      <c r="M232" s="27" t="s">
+        <v>724</v>
+      </c>
+      <c r="N232" s="27"/>
+      <c r="O232" s="27"/>
+      <c r="P232" s="27"/>
+      <c r="Q232" s="27"/>
+      <c r="R232" s="27"/>
+      <c r="S232" s="27"/>
+      <c r="T232" s="27"/>
+      <c r="U232" s="27" t="s">
+        <v>727</v>
+      </c>
+      <c r="V232" s="27"/>
+      <c r="W232" s="27"/>
+      <c r="X232" s="27" t="s">
+        <v>860</v>
+      </c>
+      <c r="Y232" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z232" s="27"/>
+      <c r="AA232" s="27"/>
+      <c r="AB232" s="27" t="s">
+        <v>716</v>
+      </c>
+      <c r="AC232" s="27"/>
+      <c r="AD232" s="27" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="233" spans="1:30" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A233" s="28" t="s">
+        <v>634</v>
+      </c>
+      <c r="B233" s="28" t="s">
+        <v>718</v>
+      </c>
+      <c r="C233" s="27" t="s">
+        <v>785</v>
+      </c>
+      <c r="D233" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="E233" s="27">
+        <v>74</v>
+      </c>
+      <c r="F233" s="27" t="s">
+        <v>861</v>
+      </c>
+      <c r="G233" s="27" t="s">
+        <v>720</v>
+      </c>
+      <c r="H233" s="27" t="s">
+        <v>721</v>
+      </c>
+      <c r="I233" s="27">
+        <v>34209466</v>
+      </c>
+      <c r="J233" s="27" t="s">
+        <v>721</v>
+      </c>
+      <c r="K233" s="27" t="s">
+        <v>722</v>
+      </c>
+      <c r="L233" s="27" t="s">
+        <v>723</v>
+      </c>
+      <c r="M233" s="27" t="s">
+        <v>747</v>
+      </c>
+      <c r="N233" s="27"/>
+      <c r="O233" s="27"/>
+      <c r="P233" s="27"/>
+      <c r="Q233" s="27"/>
+      <c r="R233" s="27"/>
+      <c r="S233" s="27"/>
+      <c r="T233" s="27"/>
+      <c r="U233" s="27" t="s">
+        <v>737</v>
+      </c>
+      <c r="V233" s="27"/>
+      <c r="W233" s="27"/>
+      <c r="X233" s="27" t="s">
+        <v>862</v>
+      </c>
+      <c r="Y233" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z233" s="27"/>
+      <c r="AA233" s="27"/>
+      <c r="AB233" s="27" t="s">
+        <v>716</v>
+      </c>
+      <c r="AC233" s="27"/>
+      <c r="AD233" s="27" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="234" spans="1:30" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A234" s="28" t="s">
+        <v>634</v>
+      </c>
+      <c r="B234" s="28" t="s">
+        <v>718</v>
+      </c>
+      <c r="C234" s="27" t="s">
+        <v>786</v>
+      </c>
+      <c r="D234" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="E234" s="27">
+        <v>83</v>
+      </c>
+      <c r="F234" s="27" t="s">
+        <v>863</v>
+      </c>
+      <c r="G234" s="27" t="s">
+        <v>720</v>
+      </c>
+      <c r="H234" s="27" t="s">
+        <v>721</v>
+      </c>
+      <c r="I234" s="27">
+        <v>26390405</v>
+      </c>
+      <c r="J234" s="27" t="s">
+        <v>721</v>
+      </c>
+      <c r="K234" s="27" t="s">
+        <v>722</v>
+      </c>
+      <c r="L234" s="27" t="s">
+        <v>723</v>
+      </c>
+      <c r="M234" s="27" t="s">
+        <v>731</v>
+      </c>
+      <c r="N234" s="27"/>
+      <c r="O234" s="27"/>
+      <c r="P234" s="27"/>
+      <c r="Q234" s="27"/>
+      <c r="R234" s="27"/>
+      <c r="S234" s="27"/>
+      <c r="T234" s="27"/>
+      <c r="U234" s="27" t="s">
+        <v>766</v>
+      </c>
+      <c r="V234" s="27"/>
+      <c r="W234" s="27"/>
+      <c r="X234" s="27" t="s">
+        <v>864</v>
+      </c>
+      <c r="Y234" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="Z234" s="27"/>
+      <c r="AA234" s="27"/>
+      <c r="AB234" s="27"/>
+      <c r="AC234" s="27"/>
+      <c r="AD234" s="27" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="235" spans="1:30" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A235" s="28" t="s">
+        <v>634</v>
+      </c>
+      <c r="B235" s="28" t="s">
+        <v>718</v>
+      </c>
+      <c r="C235" s="27" t="s">
+        <v>787</v>
+      </c>
+      <c r="D235" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="E235" s="27">
+        <v>70</v>
+      </c>
+      <c r="F235" s="27" t="s">
+        <v>865</v>
+      </c>
+      <c r="G235" s="27" t="s">
+        <v>720</v>
+      </c>
+      <c r="H235" s="27" t="s">
+        <v>721</v>
+      </c>
+      <c r="I235" s="27">
+        <v>51208386</v>
+      </c>
+      <c r="J235" s="27" t="s">
+        <v>721</v>
+      </c>
+      <c r="K235" s="27" t="s">
+        <v>722</v>
+      </c>
+      <c r="L235" s="27" t="s">
+        <v>723</v>
+      </c>
+      <c r="M235" s="27" t="s">
+        <v>739</v>
+      </c>
+      <c r="N235" s="27"/>
+      <c r="O235" s="27"/>
+      <c r="P235" s="27"/>
+      <c r="Q235" s="27"/>
+      <c r="R235" s="27"/>
+      <c r="S235" s="27"/>
+      <c r="T235" s="27"/>
+      <c r="U235" s="27" t="s">
+        <v>725</v>
+      </c>
+      <c r="V235" s="27"/>
+      <c r="W235" s="27"/>
+      <c r="X235" s="27" t="s">
+        <v>866</v>
+      </c>
+      <c r="Y235" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z235" s="27"/>
+      <c r="AA235" s="27"/>
+      <c r="AB235" s="27" t="s">
+        <v>716</v>
+      </c>
+      <c r="AC235" s="27"/>
+      <c r="AD235" s="27" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="236" spans="1:30" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A236" s="28" t="s">
+        <v>634</v>
+      </c>
+      <c r="B236" s="28" t="s">
+        <v>718</v>
+      </c>
+      <c r="C236" s="27" t="s">
+        <v>788</v>
+      </c>
+      <c r="D236" s="27" t="s">
+        <v>733</v>
+      </c>
+      <c r="E236" s="27">
+        <v>71</v>
+      </c>
+      <c r="F236" s="27" t="s">
+        <v>867</v>
+      </c>
+      <c r="G236" s="27" t="s">
+        <v>720</v>
+      </c>
+      <c r="H236" s="27" t="s">
+        <v>721</v>
+      </c>
+      <c r="I236" s="27">
+        <v>85621432</v>
+      </c>
+      <c r="J236" s="27" t="s">
+        <v>721</v>
+      </c>
+      <c r="K236" s="27" t="s">
+        <v>722</v>
+      </c>
+      <c r="L236" s="27" t="s">
+        <v>723</v>
+      </c>
+      <c r="M236" s="27" t="s">
+        <v>740</v>
+      </c>
+      <c r="N236" s="27"/>
+      <c r="O236" s="27"/>
+      <c r="P236" s="27"/>
+      <c r="Q236" s="27"/>
+      <c r="R236" s="27"/>
+      <c r="S236" s="27"/>
+      <c r="T236" s="27"/>
+      <c r="U236" s="27" t="s">
+        <v>729</v>
+      </c>
+      <c r="V236" s="27"/>
+      <c r="W236" s="27"/>
+      <c r="X236" s="27" t="s">
+        <v>868</v>
+      </c>
+      <c r="Y236" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="Z236" s="27"/>
+      <c r="AA236" s="27"/>
+      <c r="AB236" s="27"/>
+      <c r="AC236" s="27"/>
+      <c r="AD236" s="27" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="237" spans="1:30" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A237" s="28" t="s">
+        <v>634</v>
+      </c>
+      <c r="B237" s="28" t="s">
+        <v>718</v>
+      </c>
+      <c r="C237" s="27" t="s">
+        <v>789</v>
+      </c>
+      <c r="D237" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="E237" s="27">
+        <v>82</v>
+      </c>
+      <c r="F237" s="27" t="s">
+        <v>869</v>
+      </c>
+      <c r="G237" s="27" t="s">
+        <v>720</v>
+      </c>
+      <c r="H237" s="27" t="s">
+        <v>721</v>
+      </c>
+      <c r="I237" s="27">
+        <v>35639722</v>
+      </c>
+      <c r="J237" s="27" t="s">
+        <v>721</v>
+      </c>
+      <c r="K237" s="27" t="s">
+        <v>722</v>
+      </c>
+      <c r="L237" s="27" t="s">
+        <v>723</v>
+      </c>
+      <c r="M237" s="27" t="s">
+        <v>755</v>
+      </c>
+      <c r="N237" s="27"/>
+      <c r="O237" s="27"/>
+      <c r="P237" s="27"/>
+      <c r="Q237" s="27"/>
+      <c r="R237" s="27"/>
+      <c r="S237" s="27"/>
+      <c r="T237" s="27"/>
+      <c r="U237" s="27" t="s">
+        <v>728</v>
+      </c>
+      <c r="V237" s="27"/>
+      <c r="W237" s="27"/>
+      <c r="X237" s="27" t="s">
+        <v>870</v>
+      </c>
+      <c r="Y237" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="Z237" s="27"/>
+      <c r="AA237" s="27"/>
+      <c r="AB237" s="27"/>
+      <c r="AC237" s="27"/>
+      <c r="AD237" s="27" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="238" spans="1:30" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A238" s="28" t="s">
+        <v>634</v>
+      </c>
+      <c r="B238" s="28" t="s">
+        <v>718</v>
+      </c>
+      <c r="C238" s="27" t="s">
+        <v>790</v>
+      </c>
+      <c r="D238" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="E238" s="27">
+        <v>68</v>
+      </c>
+      <c r="F238" s="27" t="s">
+        <v>871</v>
+      </c>
+      <c r="G238" s="27" t="s">
+        <v>720</v>
+      </c>
+      <c r="H238" s="27" t="s">
+        <v>721</v>
+      </c>
+      <c r="I238" s="27">
+        <v>67931597</v>
+      </c>
+      <c r="J238" s="27" t="s">
+        <v>721</v>
+      </c>
+      <c r="K238" s="27" t="s">
+        <v>722</v>
+      </c>
+      <c r="L238" s="27" t="s">
+        <v>723</v>
+      </c>
+      <c r="M238" s="27" t="s">
+        <v>756</v>
+      </c>
+      <c r="N238" s="27"/>
+      <c r="O238" s="27"/>
+      <c r="P238" s="27"/>
+      <c r="Q238" s="27"/>
+      <c r="R238" s="27"/>
+      <c r="S238" s="27"/>
+      <c r="T238" s="27"/>
+      <c r="U238" s="27" t="s">
+        <v>738</v>
+      </c>
+      <c r="V238" s="27"/>
+      <c r="W238" s="27"/>
+      <c r="X238" s="27" t="s">
+        <v>872</v>
+      </c>
+      <c r="Y238" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z238" s="27"/>
+      <c r="AA238" s="27"/>
+      <c r="AB238" s="27"/>
+      <c r="AC238" s="27"/>
+      <c r="AD238" s="27" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="239" spans="1:30" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A239" s="28" t="s">
+        <v>634</v>
+      </c>
+      <c r="B239" s="28" t="s">
+        <v>718</v>
+      </c>
+      <c r="C239" s="27" t="s">
+        <v>791</v>
+      </c>
+      <c r="D239" s="27" t="s">
+        <v>733</v>
+      </c>
+      <c r="E239" s="27">
+        <v>68</v>
+      </c>
+      <c r="F239" s="27" t="s">
+        <v>873</v>
+      </c>
+      <c r="G239" s="27" t="s">
+        <v>720</v>
+      </c>
+      <c r="H239" s="27" t="s">
+        <v>721</v>
+      </c>
+      <c r="I239" s="27">
+        <v>69255064</v>
+      </c>
+      <c r="J239" s="27" t="s">
+        <v>721</v>
+      </c>
+      <c r="K239" s="27" t="s">
+        <v>722</v>
+      </c>
+      <c r="L239" s="27" t="s">
+        <v>723</v>
+      </c>
+      <c r="M239" s="27" t="s">
+        <v>763</v>
+      </c>
+      <c r="N239" s="27"/>
+      <c r="O239" s="27"/>
+      <c r="P239" s="27"/>
+      <c r="Q239" s="27"/>
+      <c r="R239" s="27"/>
+      <c r="S239" s="27"/>
+      <c r="T239" s="27"/>
+      <c r="U239" s="27" t="s">
+        <v>735</v>
+      </c>
+      <c r="V239" s="27"/>
+      <c r="W239" s="27"/>
+      <c r="X239" s="27" t="s">
+        <v>874</v>
+      </c>
+      <c r="Y239" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z239" s="27"/>
+      <c r="AA239" s="27"/>
+      <c r="AB239" s="27" t="s">
+        <v>716</v>
+      </c>
+      <c r="AC239" s="27"/>
+      <c r="AD239" s="27" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="240" spans="1:30" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A240" s="28" t="s">
+        <v>634</v>
+      </c>
+      <c r="B240" s="28" t="s">
+        <v>718</v>
+      </c>
+      <c r="C240" s="27" t="s">
+        <v>792</v>
+      </c>
+      <c r="D240" s="27" t="s">
+        <v>733</v>
+      </c>
+      <c r="E240" s="27">
+        <v>79</v>
+      </c>
+      <c r="F240" s="27" t="s">
+        <v>875</v>
+      </c>
+      <c r="G240" s="27" t="s">
+        <v>720</v>
+      </c>
+      <c r="H240" s="27" t="s">
+        <v>721</v>
+      </c>
+      <c r="I240" s="27">
+        <v>34587032</v>
+      </c>
+      <c r="J240" s="27" t="s">
+        <v>721</v>
+      </c>
+      <c r="K240" s="27" t="s">
+        <v>722</v>
+      </c>
+      <c r="L240" s="27" t="s">
+        <v>723</v>
+      </c>
+      <c r="M240" s="27" t="s">
+        <v>761</v>
+      </c>
+      <c r="N240" s="27"/>
+      <c r="O240" s="27"/>
+      <c r="P240" s="27"/>
+      <c r="Q240" s="27"/>
+      <c r="R240" s="27"/>
+      <c r="S240" s="27"/>
+      <c r="T240" s="27"/>
+      <c r="U240" s="27" t="s">
+        <v>755</v>
+      </c>
+      <c r="V240" s="27"/>
+      <c r="W240" s="27"/>
+      <c r="X240" s="27" t="s">
+        <v>876</v>
+      </c>
+      <c r="Y240" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z240" s="27"/>
+      <c r="AA240" s="27"/>
+      <c r="AB240" s="27" t="s">
+        <v>716</v>
+      </c>
+      <c r="AC240" s="27"/>
+      <c r="AD240" s="27" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="241" spans="1:30" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A241" s="28" t="s">
+        <v>634</v>
+      </c>
+      <c r="B241" s="28" t="s">
+        <v>718</v>
+      </c>
+      <c r="C241" s="27" t="s">
+        <v>793</v>
+      </c>
+      <c r="D241" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="E241" s="27">
+        <v>90</v>
+      </c>
+      <c r="F241" s="27" t="s">
+        <v>877</v>
+      </c>
+      <c r="G241" s="27" t="s">
+        <v>720</v>
+      </c>
+      <c r="H241" s="27" t="s">
+        <v>721</v>
+      </c>
+      <c r="I241" s="27">
+        <v>49521290</v>
+      </c>
+      <c r="J241" s="27" t="s">
+        <v>721</v>
+      </c>
+      <c r="K241" s="27" t="s">
+        <v>722</v>
+      </c>
+      <c r="L241" s="27" t="s">
+        <v>723</v>
+      </c>
+      <c r="M241" s="27" t="s">
+        <v>765</v>
+      </c>
+      <c r="N241" s="27"/>
+      <c r="O241" s="27"/>
+      <c r="P241" s="27"/>
+      <c r="Q241" s="27"/>
+      <c r="R241" s="27"/>
+      <c r="S241" s="27"/>
+      <c r="T241" s="27"/>
+      <c r="U241" s="27" t="s">
+        <v>746</v>
+      </c>
+      <c r="V241" s="27"/>
+      <c r="W241" s="27"/>
+      <c r="X241" s="27" t="s">
+        <v>830</v>
+      </c>
+      <c r="Y241" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z241" s="27"/>
+      <c r="AA241" s="27"/>
+      <c r="AB241" s="27"/>
+      <c r="AC241" s="27"/>
+      <c r="AD241" s="27" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="242" spans="1:30" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A242" s="28" t="s">
+        <v>634</v>
+      </c>
+      <c r="B242" s="28" t="s">
+        <v>718</v>
+      </c>
+      <c r="C242" s="27" t="s">
+        <v>794</v>
+      </c>
+      <c r="D242" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="E242" s="27">
+        <v>61</v>
+      </c>
+      <c r="F242" s="27" t="s">
+        <v>878</v>
+      </c>
+      <c r="G242" s="27" t="s">
+        <v>720</v>
+      </c>
+      <c r="H242" s="27" t="s">
+        <v>721</v>
+      </c>
+      <c r="I242" s="27">
+        <v>70252135</v>
+      </c>
+      <c r="J242" s="27" t="s">
+        <v>721</v>
+      </c>
+      <c r="K242" s="27" t="s">
+        <v>722</v>
+      </c>
+      <c r="L242" s="27" t="s">
+        <v>723</v>
+      </c>
+      <c r="M242" s="27" t="s">
+        <v>743</v>
+      </c>
+      <c r="N242" s="27"/>
+      <c r="O242" s="27"/>
+      <c r="P242" s="27"/>
+      <c r="Q242" s="27"/>
+      <c r="R242" s="27"/>
+      <c r="S242" s="27"/>
+      <c r="T242" s="27"/>
+      <c r="U242" s="27" t="s">
+        <v>736</v>
+      </c>
+      <c r="V242" s="27"/>
+      <c r="W242" s="27"/>
+      <c r="X242" s="27" t="s">
+        <v>879</v>
+      </c>
+      <c r="Y242" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z242" s="27"/>
+      <c r="AA242" s="27"/>
+      <c r="AB242" s="27"/>
+      <c r="AC242" s="27"/>
+      <c r="AD242" s="27" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="243" spans="1:30" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A243" s="28" t="s">
+        <v>634</v>
+      </c>
+      <c r="B243" s="28" t="s">
+        <v>718</v>
+      </c>
+      <c r="C243" s="27" t="s">
+        <v>795</v>
+      </c>
+      <c r="D243" s="27" t="s">
+        <v>733</v>
+      </c>
+      <c r="E243" s="27">
+        <v>76</v>
+      </c>
+      <c r="F243" s="27" t="s">
+        <v>880</v>
+      </c>
+      <c r="G243" s="27" t="s">
+        <v>720</v>
+      </c>
+      <c r="H243" s="27" t="s">
+        <v>721</v>
+      </c>
+      <c r="I243" s="27">
+        <v>90428659</v>
+      </c>
+      <c r="J243" s="27" t="s">
+        <v>721</v>
+      </c>
+      <c r="K243" s="27" t="s">
+        <v>722</v>
+      </c>
+      <c r="L243" s="27" t="s">
+        <v>723</v>
+      </c>
+      <c r="M243" s="27" t="s">
+        <v>741</v>
+      </c>
+      <c r="N243" s="27"/>
+      <c r="O243" s="27"/>
+      <c r="P243" s="27"/>
+      <c r="Q243" s="27"/>
+      <c r="R243" s="27"/>
+      <c r="S243" s="27"/>
+      <c r="T243" s="27"/>
+      <c r="U243" s="27" t="s">
+        <v>738</v>
+      </c>
+      <c r="V243" s="27"/>
+      <c r="W243" s="27"/>
+      <c r="X243" s="27" t="s">
+        <v>830</v>
+      </c>
+      <c r="Y243" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z243" s="27"/>
+      <c r="AA243" s="27"/>
+      <c r="AB243" s="27" t="s">
+        <v>716</v>
+      </c>
+      <c r="AC243" s="27"/>
+      <c r="AD243" s="27" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="244" spans="1:30" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A244" s="28" t="s">
+        <v>634</v>
+      </c>
+      <c r="B244" s="28" t="s">
+        <v>718</v>
+      </c>
+      <c r="C244" s="27" t="s">
+        <v>796</v>
+      </c>
+      <c r="D244" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="E244" s="27">
+        <v>85</v>
+      </c>
+      <c r="F244" s="27" t="s">
+        <v>881</v>
+      </c>
+      <c r="G244" s="27" t="s">
+        <v>720</v>
+      </c>
+      <c r="H244" s="27" t="s">
+        <v>721</v>
+      </c>
+      <c r="I244" s="27">
+        <v>41570770</v>
+      </c>
+      <c r="J244" s="27" t="s">
+        <v>721</v>
+      </c>
+      <c r="K244" s="27" t="s">
+        <v>722</v>
+      </c>
+      <c r="L244" s="27" t="s">
+        <v>723</v>
+      </c>
+      <c r="M244" s="27" t="s">
+        <v>755</v>
+      </c>
+      <c r="N244" s="27"/>
+      <c r="O244" s="27"/>
+      <c r="P244" s="27"/>
+      <c r="Q244" s="27"/>
+      <c r="R244" s="27"/>
+      <c r="S244" s="27"/>
+      <c r="T244" s="27"/>
+      <c r="U244" s="27" t="s">
+        <v>745</v>
+      </c>
+      <c r="V244" s="27"/>
+      <c r="W244" s="27"/>
+      <c r="X244" s="27" t="s">
+        <v>811</v>
+      </c>
+      <c r="Y244" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z244" s="27"/>
+      <c r="AA244" s="27"/>
+      <c r="AB244" s="27"/>
+      <c r="AC244" s="27"/>
+      <c r="AD244" s="27" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="245" spans="1:30" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A245" s="28" t="s">
+        <v>634</v>
+      </c>
+      <c r="B245" s="28" t="s">
+        <v>718</v>
+      </c>
+      <c r="C245" s="27" t="s">
+        <v>797</v>
+      </c>
+      <c r="D245" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="E245" s="27">
+        <v>79</v>
+      </c>
+      <c r="F245" s="27" t="s">
+        <v>882</v>
+      </c>
+      <c r="G245" s="27" t="s">
+        <v>720</v>
+      </c>
+      <c r="H245" s="27" t="s">
+        <v>721</v>
+      </c>
+      <c r="I245" s="27">
+        <v>92403010</v>
+      </c>
+      <c r="J245" s="27" t="s">
+        <v>721</v>
+      </c>
+      <c r="K245" s="27" t="s">
+        <v>722</v>
+      </c>
+      <c r="L245" s="27" t="s">
+        <v>723</v>
+      </c>
+      <c r="M245" s="27" t="s">
+        <v>730</v>
+      </c>
+      <c r="N245" s="27"/>
+      <c r="O245" s="27"/>
+      <c r="P245" s="27"/>
+      <c r="Q245" s="27"/>
+      <c r="R245" s="27"/>
+      <c r="S245" s="27"/>
+      <c r="T245" s="27"/>
+      <c r="U245" s="27" t="s">
+        <v>724</v>
+      </c>
+      <c r="V245" s="27"/>
+      <c r="W245" s="27"/>
+      <c r="X245" s="27" t="s">
+        <v>854</v>
+      </c>
+      <c r="Y245" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z245" s="27"/>
+      <c r="AA245" s="27"/>
+      <c r="AB245" s="27"/>
+      <c r="AC245" s="27"/>
+      <c r="AD245" s="27" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="246" spans="1:30" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A246" s="28" t="s">
+        <v>634</v>
+      </c>
+      <c r="B246" s="28" t="s">
+        <v>718</v>
+      </c>
+      <c r="C246" s="27" t="s">
+        <v>798</v>
+      </c>
+      <c r="D246" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="E246" s="27">
+        <v>89</v>
+      </c>
+      <c r="F246" s="27" t="s">
+        <v>883</v>
+      </c>
+      <c r="G246" s="27" t="s">
+        <v>720</v>
+      </c>
+      <c r="H246" s="27" t="s">
+        <v>721</v>
+      </c>
+      <c r="I246" s="27">
+        <v>61186344</v>
+      </c>
+      <c r="J246" s="27" t="s">
+        <v>721</v>
+      </c>
+      <c r="K246" s="27" t="s">
+        <v>722</v>
+      </c>
+      <c r="L246" s="27" t="s">
+        <v>723</v>
+      </c>
+      <c r="M246" s="27" t="s">
+        <v>744</v>
+      </c>
+      <c r="N246" s="27"/>
+      <c r="O246" s="27"/>
+      <c r="P246" s="27"/>
+      <c r="Q246" s="27"/>
+      <c r="R246" s="27"/>
+      <c r="S246" s="27"/>
+      <c r="T246" s="27"/>
+      <c r="U246" s="27" t="s">
+        <v>760</v>
+      </c>
+      <c r="V246" s="27"/>
+      <c r="W246" s="27"/>
+      <c r="X246" s="27" t="s">
+        <v>840</v>
+      </c>
+      <c r="Y246" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z246" s="27"/>
+      <c r="AA246" s="27"/>
+      <c r="AB246" s="27" t="s">
+        <v>716</v>
+      </c>
+      <c r="AC246" s="27"/>
+      <c r="AD246" s="27" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="247" spans="1:30" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A247" s="28" t="s">
+        <v>634</v>
+      </c>
+      <c r="B247" s="28" t="s">
+        <v>718</v>
+      </c>
+      <c r="C247" s="27" t="s">
+        <v>799</v>
+      </c>
+      <c r="D247" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="E247" s="27">
+        <v>65</v>
+      </c>
+      <c r="F247" s="27" t="s">
+        <v>884</v>
+      </c>
+      <c r="G247" s="27" t="s">
+        <v>720</v>
+      </c>
+      <c r="H247" s="27" t="s">
+        <v>721</v>
+      </c>
+      <c r="I247" s="27">
+        <v>91232076</v>
+      </c>
+      <c r="J247" s="27" t="s">
+        <v>721</v>
+      </c>
+      <c r="K247" s="27" t="s">
+        <v>722</v>
+      </c>
+      <c r="L247" s="27" t="s">
+        <v>723</v>
+      </c>
+      <c r="M247" s="27" t="s">
+        <v>729</v>
+      </c>
+      <c r="N247" s="27"/>
+      <c r="O247" s="27"/>
+      <c r="P247" s="27"/>
+      <c r="Q247" s="27"/>
+      <c r="R247" s="27"/>
+      <c r="S247" s="27"/>
+      <c r="T247" s="27"/>
+      <c r="U247" s="27" t="s">
+        <v>726</v>
+      </c>
+      <c r="V247" s="27"/>
+      <c r="W247" s="27"/>
+      <c r="X247" s="27" t="s">
+        <v>885</v>
+      </c>
+      <c r="Y247" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z247" s="27"/>
+      <c r="AA247" s="27"/>
+      <c r="AB247" s="27" t="s">
+        <v>716</v>
+      </c>
+      <c r="AC247" s="27"/>
+      <c r="AD247" s="27" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="248" spans="1:30" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A248" s="28" t="s">
+        <v>634</v>
+      </c>
+      <c r="B248" s="28" t="s">
+        <v>718</v>
+      </c>
+      <c r="C248" s="27" t="s">
+        <v>800</v>
+      </c>
+      <c r="D248" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="E248" s="27">
+        <v>67</v>
+      </c>
+      <c r="F248" s="27" t="s">
+        <v>886</v>
+      </c>
+      <c r="G248" s="27" t="s">
+        <v>720</v>
+      </c>
+      <c r="H248" s="27" t="s">
+        <v>721</v>
+      </c>
+      <c r="I248" s="27">
+        <v>38754585</v>
+      </c>
+      <c r="J248" s="27" t="s">
+        <v>721</v>
+      </c>
+      <c r="K248" s="27" t="s">
+        <v>722</v>
+      </c>
+      <c r="L248" s="27" t="s">
+        <v>723</v>
+      </c>
+      <c r="M248" s="27" t="s">
+        <v>770</v>
+      </c>
+      <c r="N248" s="27"/>
+      <c r="O248" s="27"/>
+      <c r="P248" s="27"/>
+      <c r="Q248" s="27"/>
+      <c r="R248" s="27"/>
+      <c r="S248" s="27"/>
+      <c r="T248" s="27"/>
+      <c r="U248" s="27" t="s">
+        <v>770</v>
+      </c>
+      <c r="V248" s="27"/>
+      <c r="W248" s="27"/>
+      <c r="X248" s="27" t="s">
+        <v>870</v>
+      </c>
+      <c r="Y248" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z248" s="27"/>
+      <c r="AA248" s="27"/>
+      <c r="AB248" s="27"/>
+      <c r="AC248" s="27"/>
+      <c r="AD248" s="27" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="249" spans="1:30" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A249" s="28" t="s">
+        <v>634</v>
+      </c>
+      <c r="B249" s="28" t="s">
+        <v>718</v>
+      </c>
+      <c r="C249" s="27" t="s">
+        <v>801</v>
+      </c>
+      <c r="D249" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="E249" s="27">
+        <v>66</v>
+      </c>
+      <c r="F249" s="27" t="s">
+        <v>887</v>
+      </c>
+      <c r="G249" s="27" t="s">
+        <v>720</v>
+      </c>
+      <c r="H249" s="27" t="s">
+        <v>721</v>
+      </c>
+      <c r="I249" s="27">
+        <v>99913422</v>
+      </c>
+      <c r="J249" s="27" t="s">
+        <v>721</v>
+      </c>
+      <c r="K249" s="27" t="s">
+        <v>722</v>
+      </c>
+      <c r="L249" s="27" t="s">
+        <v>723</v>
+      </c>
+      <c r="M249" s="27" t="s">
+        <v>741</v>
+      </c>
+      <c r="N249" s="27"/>
+      <c r="O249" s="27"/>
+      <c r="P249" s="27"/>
+      <c r="Q249" s="27"/>
+      <c r="R249" s="27"/>
+      <c r="S249" s="27"/>
+      <c r="T249" s="27"/>
+      <c r="U249" s="27" t="s">
+        <v>728</v>
+      </c>
+      <c r="V249" s="27"/>
+      <c r="W249" s="27"/>
+      <c r="X249" s="27" t="s">
+        <v>888</v>
+      </c>
+      <c r="Y249" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z249" s="27"/>
+      <c r="AA249" s="27"/>
+      <c r="AB249" s="27"/>
+      <c r="AC249" s="27"/>
+      <c r="AD249" s="27" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="250" spans="1:30" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A250" s="28" t="s">
+        <v>634</v>
+      </c>
+      <c r="B250" s="28" t="s">
+        <v>718</v>
+      </c>
+      <c r="C250" s="27" t="s">
+        <v>802</v>
+      </c>
+      <c r="D250" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="E250" s="27">
+        <v>61</v>
+      </c>
+      <c r="F250" s="27" t="s">
+        <v>889</v>
+      </c>
+      <c r="G250" s="27" t="s">
+        <v>720</v>
+      </c>
+      <c r="H250" s="27" t="s">
+        <v>721</v>
+      </c>
+      <c r="I250" s="27">
+        <v>87144514</v>
+      </c>
+      <c r="J250" s="27" t="s">
+        <v>721</v>
+      </c>
+      <c r="K250" s="27" t="s">
+        <v>722</v>
+      </c>
+      <c r="L250" s="27" t="s">
+        <v>723</v>
+      </c>
+      <c r="M250" s="27" t="s">
+        <v>740</v>
+      </c>
+      <c r="N250" s="27"/>
+      <c r="O250" s="27"/>
+      <c r="P250" s="27"/>
+      <c r="Q250" s="27"/>
+      <c r="R250" s="27"/>
+      <c r="S250" s="27"/>
+      <c r="T250" s="27"/>
+      <c r="U250" s="27" t="s">
+        <v>743</v>
+      </c>
+      <c r="V250" s="27"/>
+      <c r="W250" s="27"/>
+      <c r="X250" s="27" t="s">
+        <v>229</v>
+      </c>
+      <c r="Y250" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="Z250" s="27"/>
+      <c r="AA250" s="27"/>
+      <c r="AB250" s="27"/>
+      <c r="AC250" s="27"/>
+      <c r="AD250" s="27" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="251" spans="1:30" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A251" s="28" t="s">
+        <v>634</v>
+      </c>
+      <c r="B251" s="28" t="s">
+        <v>718</v>
+      </c>
+      <c r="C251" s="27" t="s">
+        <v>803</v>
+      </c>
+      <c r="D251" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="E251" s="27">
+        <v>69</v>
+      </c>
+      <c r="F251" s="27" t="s">
+        <v>890</v>
+      </c>
+      <c r="G251" s="27" t="s">
+        <v>720</v>
+      </c>
+      <c r="H251" s="27" t="s">
+        <v>721</v>
+      </c>
+      <c r="I251" s="27">
+        <v>83713142</v>
+      </c>
+      <c r="J251" s="27" t="s">
+        <v>721</v>
+      </c>
+      <c r="K251" s="27" t="s">
+        <v>722</v>
+      </c>
+      <c r="L251" s="27" t="s">
+        <v>723</v>
+      </c>
+      <c r="M251" s="27" t="s">
+        <v>740</v>
+      </c>
+      <c r="N251" s="27"/>
+      <c r="O251" s="27"/>
+      <c r="P251" s="27"/>
+      <c r="Q251" s="27"/>
+      <c r="R251" s="27"/>
+      <c r="S251" s="27"/>
+      <c r="T251" s="27"/>
+      <c r="U251" s="27" t="s">
+        <v>730</v>
+      </c>
+      <c r="V251" s="27"/>
+      <c r="W251" s="27"/>
+      <c r="X251" s="27" t="s">
+        <v>891</v>
+      </c>
+      <c r="Y251" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z251" s="27"/>
+      <c r="AA251" s="27"/>
+      <c r="AB251" s="27" t="s">
+        <v>716</v>
+      </c>
+      <c r="AC251" s="27"/>
+      <c r="AD251" s="27" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="252" spans="1:30" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A252" s="28" t="s">
+        <v>634</v>
+      </c>
+      <c r="B252" s="28" t="s">
+        <v>718</v>
+      </c>
+      <c r="C252" s="27" t="s">
+        <v>804</v>
+      </c>
+      <c r="D252" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="E252" s="27">
+        <v>64</v>
+      </c>
+      <c r="F252" s="27" t="s">
+        <v>892</v>
+      </c>
+      <c r="G252" s="27" t="s">
+        <v>720</v>
+      </c>
+      <c r="H252" s="27" t="s">
+        <v>721</v>
+      </c>
+      <c r="I252" s="27">
+        <v>28726448</v>
+      </c>
+      <c r="J252" s="27" t="s">
+        <v>721</v>
+      </c>
+      <c r="K252" s="27" t="s">
+        <v>722</v>
+      </c>
+      <c r="L252" s="27" t="s">
+        <v>723</v>
+      </c>
+      <c r="M252" s="27" t="s">
+        <v>756</v>
+      </c>
+      <c r="N252" s="27"/>
+      <c r="O252" s="27"/>
+      <c r="P252" s="27"/>
+      <c r="Q252" s="27"/>
+      <c r="R252" s="27"/>
+      <c r="S252" s="27"/>
+      <c r="T252" s="27"/>
+      <c r="U252" s="27" t="s">
+        <v>729</v>
+      </c>
+      <c r="V252" s="27"/>
+      <c r="W252" s="27"/>
+      <c r="X252" s="27" t="s">
+        <v>893</v>
+      </c>
+      <c r="Y252" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z252" s="27"/>
+      <c r="AA252" s="27"/>
+      <c r="AB252" s="27" t="s">
+        <v>716</v>
+      </c>
+      <c r="AC252" s="27"/>
+      <c r="AD252" s="27" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="253" spans="1:30" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A253" s="28" t="s">
+        <v>634</v>
+      </c>
+      <c r="B253" s="28" t="s">
+        <v>718</v>
+      </c>
+      <c r="C253" s="27" t="s">
+        <v>805</v>
+      </c>
+      <c r="D253" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="E253" s="27">
+        <v>70</v>
+      </c>
+      <c r="F253" s="27" t="s">
+        <v>894</v>
+      </c>
+      <c r="G253" s="27" t="s">
+        <v>720</v>
+      </c>
+      <c r="H253" s="27" t="s">
+        <v>721</v>
+      </c>
+      <c r="I253" s="27">
+        <v>96595437</v>
+      </c>
+      <c r="J253" s="27" t="s">
+        <v>721</v>
+      </c>
+      <c r="K253" s="27" t="s">
+        <v>722</v>
+      </c>
+      <c r="L253" s="27" t="s">
+        <v>723</v>
+      </c>
+      <c r="M253" s="27" t="s">
+        <v>739</v>
+      </c>
+      <c r="N253" s="27"/>
+      <c r="O253" s="27"/>
+      <c r="P253" s="27"/>
+      <c r="Q253" s="27"/>
+      <c r="R253" s="27"/>
+      <c r="S253" s="27"/>
+      <c r="T253" s="27"/>
+      <c r="U253" s="27" t="s">
+        <v>740</v>
+      </c>
+      <c r="V253" s="27"/>
+      <c r="W253" s="27"/>
+      <c r="X253" s="27" t="s">
+        <v>895</v>
+      </c>
+      <c r="Y253" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z253" s="27"/>
+      <c r="AA253" s="27"/>
+      <c r="AB253" s="27"/>
+      <c r="AC253" s="27"/>
+      <c r="AD253" s="27" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="254" spans="1:30" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A254" s="28" t="s">
+        <v>634</v>
+      </c>
+      <c r="B254" s="28" t="s">
+        <v>718</v>
+      </c>
+      <c r="C254" s="27" t="s">
+        <v>806</v>
+      </c>
+      <c r="D254" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="E254" s="27">
+        <v>66</v>
+      </c>
+      <c r="F254" s="27" t="s">
+        <v>896</v>
+      </c>
+      <c r="G254" s="27" t="s">
+        <v>720</v>
+      </c>
+      <c r="H254" s="27" t="s">
+        <v>721</v>
+      </c>
+      <c r="I254" s="27">
+        <v>16395016</v>
+      </c>
+      <c r="J254" s="27" t="s">
+        <v>721</v>
+      </c>
+      <c r="K254" s="27" t="s">
+        <v>722</v>
+      </c>
+      <c r="L254" s="27" t="s">
+        <v>723</v>
+      </c>
+      <c r="M254" s="27" t="s">
+        <v>745</v>
+      </c>
+      <c r="N254" s="27"/>
+      <c r="O254" s="27"/>
+      <c r="P254" s="27"/>
+      <c r="Q254" s="27"/>
+      <c r="R254" s="27"/>
+      <c r="S254" s="27"/>
+      <c r="T254" s="27"/>
+      <c r="U254" s="27" t="s">
+        <v>757</v>
+      </c>
+      <c r="V254" s="27"/>
+      <c r="W254" s="27"/>
+      <c r="X254" s="27" t="s">
+        <v>897</v>
+      </c>
+      <c r="Y254" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z254" s="27"/>
+      <c r="AA254" s="27"/>
+      <c r="AB254" s="27" t="s">
+        <v>716</v>
+      </c>
+      <c r="AC254" s="27"/>
+      <c r="AD254" s="27" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="255" spans="1:30" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A255" s="28" t="s">
+        <v>634</v>
+      </c>
+      <c r="B255" s="28" t="s">
+        <v>718</v>
+      </c>
+      <c r="C255" s="27" t="s">
+        <v>807</v>
+      </c>
+      <c r="D255" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="E255" s="27">
+        <v>66</v>
+      </c>
+      <c r="F255" s="27" t="s">
+        <v>898</v>
+      </c>
+      <c r="G255" s="27" t="s">
+        <v>720</v>
+      </c>
+      <c r="H255" s="27" t="s">
+        <v>721</v>
+      </c>
+      <c r="I255" s="27">
+        <v>50386900</v>
+      </c>
+      <c r="J255" s="27" t="s">
+        <v>721</v>
+      </c>
+      <c r="K255" s="27" t="s">
+        <v>722</v>
+      </c>
+      <c r="L255" s="27" t="s">
+        <v>723</v>
+      </c>
+      <c r="M255" s="27" t="s">
+        <v>757</v>
+      </c>
+      <c r="N255" s="27"/>
+      <c r="O255" s="27"/>
+      <c r="P255" s="27"/>
+      <c r="Q255" s="27"/>
+      <c r="R255" s="27"/>
+      <c r="S255" s="27"/>
+      <c r="T255" s="27"/>
+      <c r="U255" s="27" t="s">
+        <v>757</v>
+      </c>
+      <c r="V255" s="27"/>
+      <c r="W255" s="27"/>
+      <c r="X255" s="27" t="s">
+        <v>834</v>
+      </c>
+      <c r="Y255" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z255" s="27"/>
+      <c r="AA255" s="27"/>
+      <c r="AB255" s="27"/>
+      <c r="AC255" s="27"/>
+      <c r="AD255" s="27" t="s">
+        <v>808</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:AD255" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <conditionalFormatting sqref="C2:C46">
+    <cfRule type="duplicateValues" dxfId="56" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="48"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C47">
+    <cfRule type="duplicateValues" dxfId="54" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="45"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C48">
+    <cfRule type="duplicateValues" dxfId="51" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="39"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C49:C149">
+    <cfRule type="duplicateValues" dxfId="45" priority="55"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C150:C154">
+    <cfRule type="duplicateValues" dxfId="44" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="36"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C155">
+    <cfRule type="duplicateValues" dxfId="41" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="27"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C156:C160">
+    <cfRule type="duplicateValues" dxfId="39" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="30"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C161:C178">
+    <cfRule type="duplicateValues" dxfId="33" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="21"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="F2:F46">
-    <cfRule type="duplicateValues" dxfId="56" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="54"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F49:F149">
+    <cfRule type="duplicateValues" dxfId="30" priority="56"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F155">
+    <cfRule type="duplicateValues" dxfId="29" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:I46 I2">
-    <cfRule type="duplicateValues" dxfId="55" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:I46">
-    <cfRule type="duplicateValues" dxfId="54" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47">
-    <cfRule type="duplicateValues" dxfId="53" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I48">
-    <cfRule type="duplicateValues" dxfId="52" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="50"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C46">
-    <cfRule type="duplicateValues" dxfId="51" priority="49"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C46">
-    <cfRule type="duplicateValues" dxfId="50" priority="48"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C47">
-    <cfRule type="duplicateValues" dxfId="49" priority="46"/>
-    <cfRule type="duplicateValues" dxfId="48" priority="47"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C47">
-    <cfRule type="duplicateValues" dxfId="47" priority="45"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C48">
-    <cfRule type="duplicateValues" dxfId="46" priority="39"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C48">
-    <cfRule type="duplicateValues" dxfId="45" priority="40"/>
-    <cfRule type="duplicateValues" dxfId="44" priority="41"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C48">
-    <cfRule type="duplicateValues" dxfId="43" priority="42"/>
-    <cfRule type="duplicateValues" dxfId="42" priority="43"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C48">
-    <cfRule type="duplicateValues" dxfId="41" priority="44"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C150:C154">
-    <cfRule type="duplicateValues" dxfId="40" priority="37"/>
-    <cfRule type="duplicateValues" dxfId="39" priority="38"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C150:C154">
-    <cfRule type="duplicateValues" dxfId="38" priority="36"/>
+  <conditionalFormatting sqref="I49:I149">
+    <cfRule type="duplicateValues" dxfId="24" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I150:I154">
-    <cfRule type="duplicateValues" dxfId="37" priority="35"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C156:C160">
-    <cfRule type="duplicateValues" dxfId="36" priority="29"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C156:C160">
-    <cfRule type="duplicateValues" dxfId="35" priority="30"/>
-    <cfRule type="duplicateValues" dxfId="34" priority="31"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C156:C160">
-    <cfRule type="duplicateValues" dxfId="33" priority="32"/>
-    <cfRule type="duplicateValues" dxfId="32" priority="33"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C156:C160">
-    <cfRule type="duplicateValues" dxfId="31" priority="34"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I156:I160">
-    <cfRule type="duplicateValues" dxfId="30" priority="28"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C49:C149">
-    <cfRule type="duplicateValues" dxfId="29" priority="55"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F49:F149">
-    <cfRule type="duplicateValues" dxfId="28" priority="56"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I49:I149">
-    <cfRule type="duplicateValues" dxfId="27" priority="57"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C155">
-    <cfRule type="duplicateValues" dxfId="26" priority="27"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C155">
-    <cfRule type="duplicateValues" dxfId="25" priority="26"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F155">
-    <cfRule type="duplicateValues" dxfId="24" priority="25"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I155">
-    <cfRule type="duplicateValues" dxfId="23" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I155">
     <cfRule type="duplicateValues" dxfId="22" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="23"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C161:C178">
-    <cfRule type="duplicateValues" dxfId="21" priority="22"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C161:C178">
-    <cfRule type="duplicateValues" dxfId="20" priority="21"/>
+  <conditionalFormatting sqref="I156:I160">
+    <cfRule type="duplicateValues" dxfId="20" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I161:I178">
     <cfRule type="duplicateValues" dxfId="19" priority="20"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I161:I178">
     <cfRule type="duplicateValues" dxfId="18" priority="19"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I161:I178">
     <cfRule type="duplicateValues" dxfId="17" priority="18"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I161:I178">
     <cfRule type="duplicateValues" dxfId="16" priority="17"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I161:I178">
     <cfRule type="duplicateValues" dxfId="15" priority="16"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I161:I178">
     <cfRule type="duplicateValues" dxfId="14" priority="15"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I161:I178">
     <cfRule type="duplicateValues" dxfId="13" priority="14"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I161:I178">
     <cfRule type="duplicateValues" dxfId="12" priority="13"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I161:I178">
     <cfRule type="duplicateValues" dxfId="11" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I161:I178">
     <cfRule type="duplicateValues" dxfId="10" priority="11"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I161:I178">
     <cfRule type="duplicateValues" dxfId="9" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I161:I178">
     <cfRule type="duplicateValues" dxfId="8" priority="9"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I161:I178">
-    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I161:I178">
-    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I161:I178">
-    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I161:I178">
+    <cfRule type="duplicateValues" dxfId="7" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
     <cfRule type="duplicateValues" dxfId="4" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I161:I178">
+    <cfRule type="duplicateValues" dxfId="3" priority="8"/>
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I161:I178">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I161:I178">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>